--- a/v_6.0_Breakpoint_table.xlsx
+++ b/v_6.0_Breakpoint_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="165" windowWidth="12720" windowHeight="11940" tabRatio="902" firstSheet="19" activeTab="27"/>
+    <workbookView xWindow="12540" yWindow="165" windowWidth="12720" windowHeight="11940" tabRatio="902" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="23" r:id="rId1"/>
@@ -71,7 +71,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'Viridans strept'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -18537,19 +18536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -18561,22 +18554,13 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="95" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -18603,6 +18587,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -18610,9 +18609,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -18623,6 +18619,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -18657,8 +18656,11 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -18669,16 +18671,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -18689,9 +18682,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -18729,11 +18719,14 @@
     <xf numFmtId="0" fontId="87" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -18744,17 +18737,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -18770,6 +18757,18 @@
     </xf>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -18810,6 +18809,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -18839,9 +18841,6 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -22928,33 +22927,33 @@
       <c r="G4" s="141"/>
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="432" t="s">
+      <c r="A5" s="441" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431" t="s">
+      <c r="C5" s="438"/>
+      <c r="D5" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="431" t="s">
+      <c r="E5" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="431"/>
+      <c r="F5" s="438"/>
       <c r="G5" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="432"/>
+      <c r="A6" s="441"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="431"/>
+      <c r="D6" s="438"/>
       <c r="E6" s="49" t="s">
         <v>225</v>
       </c>
@@ -23298,33 +23297,33 @@
       <c r="G26" s="248"/>
     </row>
     <row r="27" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="432" t="s">
+      <c r="A27" s="441" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="431" t="s">
+      <c r="B27" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="431"/>
-      <c r="D27" s="431" t="s">
+      <c r="C27" s="438"/>
+      <c r="D27" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="431" t="s">
+      <c r="E27" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="431"/>
+      <c r="F27" s="438"/>
       <c r="G27" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="432"/>
+      <c r="A28" s="441"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="431"/>
+      <c r="D28" s="438"/>
       <c r="E28" s="49" t="s">
         <v>225</v>
       </c>
@@ -23350,7 +23349,7 @@
       <c r="F29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="440"/>
+      <c r="G29" s="435"/>
     </row>
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
@@ -23654,7 +23653,7 @@
       <c r="F45" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="441"/>
+      <c r="G45" s="436"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
@@ -23670,7 +23669,7 @@
       <c r="G47" s="252"/>
     </row>
     <row r="48" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="429" t="s">
+      <c r="A48" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="413" t="s">
@@ -23680,16 +23679,16 @@
       <c r="D48" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="431" t="s">
+      <c r="E48" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F48" s="431"/>
+      <c r="F48" s="438"/>
       <c r="G48" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="430"/>
+      <c r="A49" s="440"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -23722,7 +23721,7 @@
       <c r="F50" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="440"/>
+      <c r="G50" s="435"/>
     </row>
     <row r="51" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="153" t="s">
@@ -23781,7 +23780,7 @@
       <c r="F53" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="441"/>
+      <c r="G53" s="436"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G54" s="252"/>
@@ -23790,7 +23789,7 @@
       <c r="G55" s="252"/>
     </row>
     <row r="56" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -23800,16 +23799,16 @@
       <c r="D56" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="431" t="s">
+      <c r="E56" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F56" s="431"/>
+      <c r="F56" s="438"/>
       <c r="G56" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="88" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -23851,7 +23850,7 @@
       <c r="G60" s="252"/>
     </row>
     <row r="61" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="429" t="s">
+      <c r="A61" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="413" t="s">
@@ -23861,16 +23860,16 @@
       <c r="D61" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E61" s="431" t="s">
+      <c r="E61" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F61" s="431"/>
+      <c r="F61" s="438"/>
       <c r="G61" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="430"/>
+      <c r="A62" s="440"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -23906,7 +23905,7 @@
       <c r="F63" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="G63" s="428" t="s">
+      <c r="G63" s="420" t="s">
         <v>479</v>
       </c>
     </row>
@@ -23929,7 +23928,7 @@
       <c r="F64" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="G64" s="422"/>
+      <c r="G64" s="421"/>
     </row>
     <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="63" t="s">
@@ -23948,7 +23947,7 @@
       <c r="F65" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="422"/>
+      <c r="G65" s="421"/>
     </row>
     <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
@@ -23967,7 +23966,7 @@
       <c r="F66" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="422"/>
+      <c r="G66" s="421"/>
     </row>
     <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -23988,7 +23987,7 @@
       <c r="F67" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G67" s="422"/>
+      <c r="G67" s="421"/>
     </row>
     <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
@@ -24007,7 +24006,7 @@
       <c r="F68" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="423"/>
+      <c r="G68" s="422"/>
     </row>
     <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="34"/>
@@ -24023,7 +24022,7 @@
       <c r="G70" s="252"/>
     </row>
     <row r="71" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>304</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -24033,16 +24032,16 @@
       <c r="D71" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="431" t="s">
+      <c r="E71" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F71" s="431"/>
+      <c r="F71" s="438"/>
       <c r="G71" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>0</v>
       </c>
@@ -24173,7 +24172,7 @@
       <c r="G79" s="247"/>
     </row>
     <row r="80" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="424" t="s">
+      <c r="A80" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B80" s="413" t="s">
@@ -24183,16 +24182,16 @@
       <c r="D80" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E80" s="431" t="s">
+      <c r="E80" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F80" s="431"/>
+      <c r="F80" s="438"/>
       <c r="G80" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="122" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="424"/>
+      <c r="A81" s="426"/>
       <c r="B81" s="49" t="s">
         <v>0</v>
       </c>
@@ -24246,7 +24245,7 @@
       <c r="F83" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="G83" s="422"/>
+      <c r="G83" s="421"/>
     </row>
     <row r="84" spans="1:7" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="104" t="s">
@@ -24267,7 +24266,7 @@
       <c r="F84" s="155">
         <v>16</v>
       </c>
-      <c r="G84" s="422"/>
+      <c r="G84" s="421"/>
     </row>
     <row r="85" spans="1:7" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="154" t="s">
@@ -24286,7 +24285,7 @@
       <c r="F85" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G85" s="422"/>
+      <c r="G85" s="421"/>
     </row>
     <row r="86" spans="1:7" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
@@ -24307,7 +24306,7 @@
       <c r="F86" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G86" s="423"/>
+      <c r="G86" s="422"/>
     </row>
     <row r="87" spans="1:7" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="30"/>
@@ -24338,10 +24337,10 @@
       <c r="D89" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="431" t="s">
+      <c r="E89" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F89" s="431"/>
+      <c r="F89" s="438"/>
       <c r="G89" s="417" t="s">
         <v>516</v>
       </c>
@@ -24526,7 +24525,7 @@
       <c r="G100" s="252"/>
     </row>
     <row r="101" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="429" t="s">
+      <c r="A101" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B101" s="413" t="s">
@@ -24536,16 +24535,16 @@
       <c r="D101" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E101" s="431" t="s">
+      <c r="E101" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F101" s="431"/>
+      <c r="F101" s="438"/>
       <c r="G101" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="430"/>
+      <c r="A102" s="440"/>
       <c r="B102" s="49" t="s">
         <v>0</v>
       </c>
@@ -24655,7 +24654,7 @@
       <c r="G108" s="247"/>
     </row>
     <row r="109" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="426" t="s">
+      <c r="A109" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B109" s="413" t="s">
@@ -24674,7 +24673,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="427"/>
+      <c r="A110" s="425"/>
       <c r="B110" s="49" t="s">
         <v>0</v>
       </c>
@@ -24749,10 +24748,10 @@
       <c r="D115" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E115" s="431" t="s">
+      <c r="E115" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F115" s="431"/>
+      <c r="F115" s="438"/>
       <c r="G115" s="417" t="s">
         <v>516</v>
       </c>
@@ -25241,22 +25240,39 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="G117:G129"/>
-    <mergeCell ref="G29:G45"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G82:G86"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G7:G24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:D81"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="G27:G28"/>
@@ -25273,39 +25289,22 @@
     <mergeCell ref="A101:A102"/>
     <mergeCell ref="B101:C101"/>
     <mergeCell ref="D101:D102"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G7:G24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="G117:G129"/>
+    <mergeCell ref="G29:G45"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G82:G86"/>
+    <mergeCell ref="G111:G112"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -25407,7 +25406,9 @@
   <sheetPr codeName="Blad10"/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25476,7 +25477,7 @@
       <c r="E5" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="460"/>
+      <c r="F5" s="465"/>
       <c r="G5" s="417" t="s">
         <v>516</v>
       </c>
@@ -25517,7 +25518,7 @@
       <c r="F7" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="461" t="s">
+      <c r="G7" s="462" t="s">
         <v>540</v>
       </c>
     </row>
@@ -25538,7 +25539,7 @@
       <c r="F8" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="462"/>
+      <c r="G8" s="463"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -25557,7 +25558,7 @@
       <c r="F9" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G9" s="462"/>
+      <c r="G9" s="463"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
@@ -25576,7 +25577,7 @@
       <c r="F10" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="462"/>
+      <c r="G10" s="463"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -25595,7 +25596,7 @@
       <c r="F11" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="462"/>
+      <c r="G11" s="463"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -25614,7 +25615,7 @@
       <c r="F12" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="462"/>
+      <c r="G12" s="463"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
@@ -25633,7 +25634,7 @@
       <c r="F13" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="462"/>
+      <c r="G13" s="463"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
@@ -25652,7 +25653,7 @@
       <c r="F14" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="462"/>
+      <c r="G14" s="463"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -25671,7 +25672,7 @@
       <c r="F15" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="462"/>
+      <c r="G15" s="463"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
@@ -25680,7 +25681,7 @@
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="462"/>
+      <c r="G16" s="463"/>
     </row>
     <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="346" t="s">
@@ -25699,7 +25700,7 @@
       <c r="F17" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="462"/>
+      <c r="G17" s="463"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
@@ -25708,7 +25709,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="27"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="462"/>
+      <c r="G18" s="463"/>
     </row>
     <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="347" t="s">
@@ -25727,7 +25728,7 @@
       <c r="F19" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="462"/>
+      <c r="G19" s="463"/>
     </row>
     <row r="20" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="347" t="s">
@@ -25746,7 +25747,7 @@
       <c r="F20" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="462"/>
+      <c r="G20" s="463"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="347" t="s">
@@ -25765,7 +25766,7 @@
       <c r="F21" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="462"/>
+      <c r="G21" s="463"/>
     </row>
     <row r="22" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="347" t="s">
@@ -25784,7 +25785,7 @@
       <c r="F22" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="462"/>
+      <c r="G22" s="463"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
@@ -25793,7 +25794,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="462"/>
+      <c r="G23" s="463"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
@@ -25812,7 +25813,7 @@
       <c r="F24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="463"/>
+      <c r="G24" s="464"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
@@ -25844,7 +25845,7 @@
       <c r="E27" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F27" s="460"/>
+      <c r="F27" s="465"/>
       <c r="G27" s="417" t="s">
         <v>516</v>
       </c>
@@ -26221,7 +26222,7 @@
       <c r="E48" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F48" s="460"/>
+      <c r="F48" s="465"/>
       <c r="G48" s="417" t="s">
         <v>516</v>
       </c>
@@ -26344,7 +26345,7 @@
       <c r="E56" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F56" s="460"/>
+      <c r="F56" s="465"/>
       <c r="G56" s="417" t="s">
         <v>516</v>
       </c>
@@ -26417,7 +26418,7 @@
       <c r="E61" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F61" s="460"/>
+      <c r="F61" s="465"/>
       <c r="G61" s="417" t="s">
         <v>516</v>
       </c>
@@ -26593,7 +26594,7 @@
       <c r="E71" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F71" s="460"/>
+      <c r="F71" s="465"/>
       <c r="G71" s="417" t="s">
         <v>516</v>
       </c>
@@ -26632,7 +26633,7 @@
       <c r="F73" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="428"/>
+      <c r="G73" s="420"/>
     </row>
     <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="s">
@@ -26651,7 +26652,7 @@
       <c r="F74" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G74" s="422"/>
+      <c r="G74" s="421"/>
     </row>
     <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="63" t="s">
@@ -26670,7 +26671,7 @@
       <c r="F75" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="422"/>
+      <c r="G75" s="421"/>
     </row>
     <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -26689,7 +26690,7 @@
       <c r="F76" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G76" s="423"/>
+      <c r="G76" s="422"/>
     </row>
     <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="77"/>
@@ -26708,33 +26709,33 @@
       <c r="G78" s="256"/>
     </row>
     <row r="79" spans="1:7" s="88" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
-      <c r="B79" s="431" t="s">
+      <c r="B79" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="431"/>
-      <c r="D79" s="431" t="s">
+      <c r="C79" s="438"/>
+      <c r="D79" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E79" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F79" s="460"/>
+      <c r="F79" s="465"/>
       <c r="G79" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="431"/>
+      <c r="D80" s="438"/>
       <c r="E80" s="49" t="s">
         <v>189</v>
       </c>
@@ -26873,7 +26874,7 @@
       <c r="E88" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F88" s="460"/>
+      <c r="F88" s="465"/>
       <c r="G88" s="417" t="s">
         <v>516</v>
       </c>
@@ -26936,7 +26937,7 @@
       <c r="F91" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G91" s="464"/>
+      <c r="G91" s="460"/>
       <c r="H91"/>
     </row>
     <row r="92" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26958,7 +26959,7 @@
       <c r="F92" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="G92" s="464"/>
+      <c r="G92" s="460"/>
       <c r="H92"/>
     </row>
     <row r="93" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -26978,7 +26979,7 @@
       <c r="F93" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="G93" s="464"/>
+      <c r="G93" s="460"/>
     </row>
     <row r="94" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
@@ -26999,7 +27000,7 @@
       <c r="F94" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G94" s="464"/>
+      <c r="G94" s="460"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27009,7 +27010,7 @@
       <c r="D95" s="26"/>
       <c r="E95" s="27"/>
       <c r="F95" s="39"/>
-      <c r="G95" s="464"/>
+      <c r="G95" s="460"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27031,7 +27032,7 @@
       <c r="F96" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="464"/>
+      <c r="G96" s="460"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27051,7 +27052,7 @@
       <c r="F97" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="G97" s="465"/>
+      <c r="G97" s="461"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -27086,7 +27087,7 @@
       <c r="E100" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F100" s="460"/>
+      <c r="F100" s="465"/>
       <c r="G100" s="417" t="s">
         <v>516</v>
       </c>
@@ -27203,7 +27204,7 @@
       <c r="G107" s="247"/>
     </row>
     <row r="108" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -27222,7 +27223,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +27315,7 @@
       <c r="E114" s="413" t="s">
         <v>418</v>
       </c>
-      <c r="F114" s="460"/>
+      <c r="F114" s="465"/>
       <c r="G114" s="417" t="s">
         <v>516</v>
       </c>
@@ -27610,21 +27611,40 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="G90:G97"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G7:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G45"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G116:G128"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="B114:C114"/>
@@ -27641,40 +27661,21 @@
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="G116:G128"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G81:G85"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G7:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G45"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G90:G97"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G88:G89"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -27852,7 +27853,7 @@
       <c r="G4" s="257"/>
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -27871,14 +27872,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="466"/>
+      <c r="A6" s="482"/>
       <c r="B6" s="42" t="s">
         <v>226</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="467"/>
+      <c r="D6" s="483"/>
       <c r="E6" s="42" t="s">
         <v>225</v>
       </c>
@@ -27904,7 +27905,7 @@
       <c r="F7" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G7" s="468" t="s">
+      <c r="G7" s="466" t="s">
         <v>495</v>
       </c>
     </row>
@@ -27925,7 +27926,7 @@
       <c r="F8" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="469"/>
+      <c r="G8" s="467"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
@@ -27944,7 +27945,7 @@
       <c r="F9" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="469"/>
+      <c r="G9" s="467"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
@@ -27963,7 +27964,7 @@
       <c r="F10" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="469"/>
+      <c r="G10" s="467"/>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
@@ -27982,7 +27983,7 @@
       <c r="F11" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="469"/>
+      <c r="G11" s="467"/>
     </row>
     <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -28001,7 +28002,7 @@
       <c r="F12" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="469"/>
+      <c r="G12" s="467"/>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
@@ -28020,7 +28021,7 @@
       <c r="F13" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="469"/>
+      <c r="G13" s="467"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -28039,7 +28040,7 @@
       <c r="F14" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="469"/>
+      <c r="G14" s="467"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -28058,7 +28059,7 @@
       <c r="F15" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="469"/>
+      <c r="G15" s="467"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -28077,7 +28078,7 @@
       <c r="F16" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="469"/>
+      <c r="G16" s="467"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38"/>
@@ -28086,7 +28087,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="48"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="469"/>
+      <c r="G17" s="467"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
@@ -28105,7 +28106,7 @@
       <c r="F18" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="G18" s="469"/>
+      <c r="G18" s="467"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
@@ -28114,7 +28115,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="48"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="469"/>
+      <c r="G19" s="467"/>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
@@ -28135,7 +28136,7 @@
       <c r="F20" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="G20" s="469"/>
+      <c r="G20" s="467"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
@@ -28154,7 +28155,7 @@
       <c r="F21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="469"/>
+      <c r="G21" s="467"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -28173,7 +28174,7 @@
       <c r="F22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="469"/>
+      <c r="G22" s="467"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -28192,7 +28193,7 @@
       <c r="F23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="469"/>
+      <c r="G23" s="467"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
@@ -28201,7 +28202,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="469"/>
+      <c r="G24" s="467"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
@@ -28220,7 +28221,7 @@
       <c r="F25" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="470"/>
+      <c r="G25" s="468"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
@@ -28241,14 +28242,14 @@
       <c r="G27" s="247"/>
     </row>
     <row r="28" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="432" t="s">
+      <c r="A28" s="441" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="431" t="s">
+      <c r="B28" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="431"/>
-      <c r="D28" s="431" t="s">
+      <c r="C28" s="438"/>
+      <c r="D28" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="413" t="s">
@@ -28260,14 +28261,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="432"/>
+      <c r="A29" s="441"/>
       <c r="B29" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="431"/>
+      <c r="D29" s="438"/>
       <c r="E29" s="49" t="s">
         <v>225</v>
       </c>
@@ -28295,7 +28296,7 @@
       <c r="F30" s="66">
         <v>28</v>
       </c>
-      <c r="G30" s="468" t="s">
+      <c r="G30" s="466" t="s">
         <v>601</v>
       </c>
     </row>
@@ -28316,7 +28317,7 @@
       <c r="F31" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="469"/>
+      <c r="G31" s="467"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
@@ -28335,7 +28336,7 @@
       <c r="F32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="469"/>
+      <c r="G32" s="467"/>
     </row>
     <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
@@ -28354,7 +28355,7 @@
       <c r="F33" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="469"/>
+      <c r="G33" s="467"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -28373,7 +28374,7 @@
       <c r="F34" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="469"/>
+      <c r="G34" s="467"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
@@ -28392,7 +28393,7 @@
       <c r="F35" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="469"/>
+      <c r="G35" s="467"/>
     </row>
     <row r="36" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -28411,7 +28412,7 @@
       <c r="F36" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G36" s="469"/>
+      <c r="G36" s="467"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68" t="s">
@@ -28430,7 +28431,7 @@
       <c r="F37" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="469"/>
+      <c r="G37" s="467"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68" t="s">
@@ -28449,7 +28450,7 @@
       <c r="F38" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="G38" s="469"/>
+      <c r="G38" s="467"/>
     </row>
     <row r="39" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
@@ -28468,7 +28469,7 @@
       <c r="F39" s="121" t="s">
         <v>170</v>
       </c>
-      <c r="G39" s="469"/>
+      <c r="G39" s="467"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
@@ -28487,7 +28488,7 @@
       <c r="F40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="469"/>
+      <c r="G40" s="467"/>
     </row>
     <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68" t="s">
@@ -28506,7 +28507,7 @@
       <c r="F41" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="469"/>
+      <c r="G41" s="467"/>
     </row>
     <row r="42" spans="1:7" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="68" t="s">
@@ -28525,7 +28526,7 @@
       <c r="F42" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="469"/>
+      <c r="G42" s="467"/>
     </row>
     <row r="43" spans="1:7" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="322" t="s">
@@ -28544,7 +28545,7 @@
       <c r="F43" s="324" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="469"/>
+      <c r="G43" s="467"/>
     </row>
     <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68" t="s">
@@ -28563,7 +28564,7 @@
       <c r="F44" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="469"/>
+      <c r="G44" s="467"/>
     </row>
     <row r="45" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
@@ -28582,7 +28583,7 @@
       <c r="F45" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="469"/>
+      <c r="G45" s="467"/>
     </row>
     <row r="46" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
@@ -28601,7 +28602,7 @@
       <c r="F46" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="470"/>
+      <c r="G46" s="468"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
@@ -28617,14 +28618,14 @@
       <c r="G48" s="247"/>
     </row>
     <row r="49" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="432" t="s">
+      <c r="A49" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="431" t="s">
+      <c r="B49" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="431"/>
-      <c r="D49" s="431" t="s">
+      <c r="C49" s="438"/>
+      <c r="D49" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E49" s="413" t="s">
@@ -28636,14 +28637,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="432"/>
+      <c r="A50" s="441"/>
       <c r="B50" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C50" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="431"/>
+      <c r="D50" s="438"/>
       <c r="E50" s="49" t="s">
         <v>225</v>
       </c>
@@ -28669,7 +28670,7 @@
       <c r="F51" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G51" s="468" t="s">
+      <c r="G51" s="466" t="s">
         <v>602</v>
       </c>
     </row>
@@ -28690,7 +28691,7 @@
       <c r="F52" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G52" s="469"/>
+      <c r="G52" s="467"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -28709,7 +28710,7 @@
       <c r="F53" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="469"/>
+      <c r="G53" s="467"/>
     </row>
     <row r="54" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
@@ -28728,7 +28729,7 @@
       <c r="F54" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="469"/>
+      <c r="G54" s="467"/>
     </row>
     <row r="55" spans="1:7" s="30" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
@@ -28747,7 +28748,7 @@
       <c r="F55" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G55" s="470"/>
+      <c r="G55" s="468"/>
     </row>
     <row r="56" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
@@ -28759,7 +28760,7 @@
       <c r="G57" s="247"/>
     </row>
     <row r="58" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="429" t="s">
+      <c r="A58" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B58" s="413" t="s">
@@ -28778,7 +28779,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="430"/>
+      <c r="A59" s="440"/>
       <c r="B59" s="49" t="s">
         <v>226</v>
       </c>
@@ -28820,7 +28821,7 @@
       <c r="G62" s="247"/>
     </row>
     <row r="63" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="429" t="s">
+      <c r="A63" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="413" t="s">
@@ -28839,7 +28840,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="430"/>
+      <c r="A64" s="440"/>
       <c r="B64" s="49" t="s">
         <v>226</v>
       </c>
@@ -28990,7 +28991,7 @@
       <c r="G72" s="247"/>
     </row>
     <row r="73" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="429" t="s">
+      <c r="A73" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="413" t="s">
@@ -29009,7 +29010,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="430"/>
+      <c r="A74" s="440"/>
       <c r="B74" s="49" t="s">
         <v>226</v>
       </c>
@@ -29042,7 +29043,7 @@
       <c r="F75" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="428"/>
+      <c r="G75" s="420"/>
     </row>
     <row r="76" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -29061,7 +29062,7 @@
       <c r="F76" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G76" s="422"/>
+      <c r="G76" s="421"/>
     </row>
     <row r="77" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="63" t="s">
@@ -29080,7 +29081,7 @@
       <c r="F77" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G77" s="422"/>
+      <c r="G77" s="421"/>
     </row>
     <row r="78" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="63" t="s">
@@ -29099,7 +29100,7 @@
       <c r="F78" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G78" s="423"/>
+      <c r="G78" s="422"/>
     </row>
     <row r="79" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
@@ -29115,14 +29116,14 @@
       <c r="G80" s="247"/>
     </row>
     <row r="81" spans="1:9" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="424" t="s">
+      <c r="A81" s="426" t="s">
         <v>587</v>
       </c>
-      <c r="B81" s="431" t="s">
+      <c r="B81" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="431"/>
-      <c r="D81" s="431" t="s">
+      <c r="C81" s="438"/>
+      <c r="D81" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E81" s="413" t="s">
@@ -29134,14 +29135,14 @@
       </c>
     </row>
     <row r="82" spans="1:9" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="424"/>
+      <c r="A82" s="426"/>
       <c r="B82" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C82" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D82" s="431"/>
+      <c r="D82" s="438"/>
       <c r="E82" s="49" t="s">
         <v>225</v>
       </c>
@@ -29483,7 +29484,7 @@
       <c r="G101" s="247"/>
     </row>
     <row r="102" spans="1:9" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="429" t="s">
+      <c r="A102" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="413" t="s">
@@ -29502,7 +29503,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="430"/>
+      <c r="A103" s="440"/>
       <c r="B103" s="49" t="s">
         <v>226</v>
       </c>
@@ -29615,7 +29616,7 @@
       <c r="G109" s="247"/>
     </row>
     <row r="110" spans="1:9" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="426" t="s">
+      <c r="A110" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B110" s="413" t="s">
@@ -29634,7 +29635,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="427"/>
+      <c r="A111" s="425"/>
       <c r="B111" s="49" t="s">
         <v>0</v>
       </c>
@@ -29669,7 +29670,7 @@
       <c r="F112" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="433"/>
+      <c r="G112" s="437"/>
     </row>
     <row r="113" spans="1:7" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="310" t="s">
@@ -29688,7 +29689,7 @@
       <c r="F113" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="G113" s="421"/>
+      <c r="G113" s="428"/>
     </row>
     <row r="114" spans="1:7" s="56" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="338"/>
@@ -29704,7 +29705,7 @@
       <c r="G115" s="247"/>
     </row>
     <row r="116" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="429" t="s">
+      <c r="A116" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B116" s="413" t="s">
@@ -29723,7 +29724,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="430"/>
+      <c r="A117" s="440"/>
       <c r="B117" s="49" t="s">
         <v>226</v>
       </c>
@@ -30036,13 +30037,13 @@
       <c r="A136" s="217" t="s">
         <v>600</v>
       </c>
-      <c r="B136" s="471" t="s">
+      <c r="B136" s="481" t="s">
         <v>345</v>
       </c>
-      <c r="C136" s="471"/>
-      <c r="D136" s="471"/>
-      <c r="E136" s="471"/>
-      <c r="F136" s="471"/>
+      <c r="C136" s="481"/>
+      <c r="D136" s="481"/>
+      <c r="E136" s="481"/>
+      <c r="F136" s="481"/>
       <c r="G136" s="260" t="s">
         <v>324</v>
       </c>
@@ -30052,78 +30053,78 @@
       <c r="A137" s="195" t="s">
         <v>325</v>
       </c>
-      <c r="B137" s="472" t="s">
+      <c r="B137" s="469" t="s">
         <v>416</v>
       </c>
-      <c r="C137" s="473"/>
-      <c r="D137" s="473"/>
-      <c r="E137" s="473"/>
-      <c r="F137" s="474"/>
+      <c r="C137" s="470"/>
+      <c r="D137" s="470"/>
+      <c r="E137" s="470"/>
+      <c r="F137" s="471"/>
       <c r="G137" s="261" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="475" t="s">
+      <c r="A138" s="472" t="s">
         <v>326</v>
       </c>
-      <c r="B138" s="478" t="s">
+      <c r="B138" s="475" t="s">
         <v>327</v>
       </c>
-      <c r="C138" s="478"/>
-      <c r="D138" s="478"/>
-      <c r="E138" s="478"/>
-      <c r="F138" s="478"/>
+      <c r="C138" s="475"/>
+      <c r="D138" s="475"/>
+      <c r="E138" s="475"/>
+      <c r="F138" s="475"/>
       <c r="G138" s="262" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="476"/>
-      <c r="B139" s="483" t="s">
+      <c r="A139" s="473"/>
+      <c r="B139" s="480" t="s">
         <v>358</v>
       </c>
-      <c r="C139" s="483"/>
-      <c r="D139" s="483"/>
-      <c r="E139" s="483"/>
-      <c r="F139" s="483"/>
+      <c r="C139" s="480"/>
+      <c r="D139" s="480"/>
+      <c r="E139" s="480"/>
+      <c r="F139" s="480"/>
       <c r="G139" s="263" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="476"/>
-      <c r="B140" s="479" t="s">
+      <c r="A140" s="473"/>
+      <c r="B140" s="476" t="s">
         <v>434</v>
       </c>
-      <c r="C140" s="479"/>
-      <c r="D140" s="479"/>
-      <c r="E140" s="479"/>
-      <c r="F140" s="479"/>
+      <c r="C140" s="476"/>
+      <c r="D140" s="476"/>
+      <c r="E140" s="476"/>
+      <c r="F140" s="476"/>
       <c r="G140" s="264" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="476"/>
-      <c r="B141" s="479"/>
-      <c r="C141" s="479"/>
-      <c r="D141" s="479"/>
-      <c r="E141" s="479"/>
-      <c r="F141" s="479"/>
+      <c r="A141" s="473"/>
+      <c r="B141" s="476"/>
+      <c r="C141" s="476"/>
+      <c r="D141" s="476"/>
+      <c r="E141" s="476"/>
+      <c r="F141" s="476"/>
       <c r="G141" s="264" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="477"/>
-      <c r="B142" s="480" t="s">
+      <c r="A142" s="474"/>
+      <c r="B142" s="477" t="s">
         <v>357</v>
       </c>
-      <c r="C142" s="481"/>
-      <c r="D142" s="481"/>
-      <c r="E142" s="481"/>
-      <c r="F142" s="482"/>
+      <c r="C142" s="478"/>
+      <c r="D142" s="478"/>
+      <c r="E142" s="478"/>
+      <c r="F142" s="479"/>
       <c r="G142" s="265" t="s">
         <v>365</v>
       </c>
@@ -30259,51 +30260,17 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="72">
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="G30:G46"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="G83:G87"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B140:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="G118:G130"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G7:G25"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:D50"/>
@@ -30320,17 +30287,51 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="E63:F63"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G7:G25"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="G118:G130"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B140:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G30:G46"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G58:G59"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -30532,15 +30533,15 @@
       <c r="G4" s="141"/>
     </row>
     <row r="5" spans="1:7" s="358" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="484" t="s">
+      <c r="A5" s="487" t="s">
         <v>664</v>
       </c>
-      <c r="B5" s="484"/>
-      <c r="C5" s="484"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="484"/>
-      <c r="F5" s="484"/>
-      <c r="G5" s="484"/>
+      <c r="B5" s="487"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
+      <c r="G5" s="487"/>
     </row>
     <row r="6" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24"/>
@@ -30552,7 +30553,7 @@
       <c r="G6" s="257"/>
     </row>
     <row r="7" spans="1:7" s="88" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="429" t="s">
+      <c r="A7" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="413" t="s">
@@ -30571,7 +30572,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="58" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="430"/>
+      <c r="A8" s="440"/>
       <c r="B8" s="49" t="s">
         <v>226</v>
       </c>
@@ -30606,7 +30607,7 @@
       <c r="F9" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="486" t="s">
+      <c r="G9" s="484" t="s">
         <v>469</v>
       </c>
     </row>
@@ -30629,7 +30630,7 @@
       <c r="F10" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="487"/>
+      <c r="G10" s="485"/>
     </row>
     <row r="11" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -30650,7 +30651,7 @@
       <c r="F11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="487"/>
+      <c r="G11" s="485"/>
     </row>
     <row r="12" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -30669,7 +30670,7 @@
       <c r="F12" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="487"/>
+      <c r="G12" s="485"/>
     </row>
     <row r="13" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
@@ -30688,7 +30689,7 @@
       <c r="F13" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="487"/>
+      <c r="G13" s="485"/>
     </row>
     <row r="14" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
@@ -30707,7 +30708,7 @@
       <c r="F14" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="487"/>
+      <c r="G14" s="485"/>
     </row>
     <row r="15" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -30726,7 +30727,7 @@
       <c r="F15" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G15" s="487"/>
+      <c r="G15" s="485"/>
     </row>
     <row r="16" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
@@ -30745,7 +30746,7 @@
       <c r="F16" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="487"/>
+      <c r="G16" s="485"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
@@ -30764,7 +30765,7 @@
       <c r="F17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="487"/>
+      <c r="G17" s="485"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
@@ -30783,7 +30784,7 @@
       <c r="F18" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="487"/>
+      <c r="G18" s="485"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
@@ -30792,7 +30793,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="487"/>
+      <c r="G19" s="485"/>
     </row>
     <row r="20" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
@@ -30811,7 +30812,7 @@
       <c r="F20" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="487"/>
+      <c r="G20" s="485"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
@@ -30820,7 +30821,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="487"/>
+      <c r="G21" s="485"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
@@ -30839,7 +30840,7 @@
       <c r="F22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="487"/>
+      <c r="G22" s="485"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
@@ -30858,7 +30859,7 @@
       <c r="F23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="487"/>
+      <c r="G23" s="485"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
@@ -30877,7 +30878,7 @@
       <c r="F24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="487"/>
+      <c r="G24" s="485"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
@@ -30896,7 +30897,7 @@
       <c r="F25" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="487"/>
+      <c r="G25" s="485"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
@@ -30905,7 +30906,7 @@
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="487"/>
+      <c r="G26" s="485"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
@@ -30924,7 +30925,7 @@
       <c r="F27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="488"/>
+      <c r="G27" s="486"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
@@ -30945,7 +30946,7 @@
       <c r="G29" s="252"/>
     </row>
     <row r="30" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="429" t="s">
+      <c r="A30" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="413" t="s">
@@ -30964,7 +30965,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="430"/>
+      <c r="A31" s="440"/>
       <c r="B31" s="49" t="s">
         <v>226</v>
       </c>
@@ -30997,7 +30998,7 @@
       <c r="F32" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="428" t="s">
+      <c r="G32" s="420" t="s">
         <v>343</v>
       </c>
     </row>
@@ -31018,7 +31019,7 @@
       <c r="F33" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="422"/>
+      <c r="G33" s="421"/>
     </row>
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -31037,7 +31038,7 @@
       <c r="F34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="422"/>
+      <c r="G34" s="421"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
@@ -31058,7 +31059,7 @@
       <c r="F35" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="G35" s="422"/>
+      <c r="G35" s="421"/>
     </row>
     <row r="36" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
@@ -31079,7 +31080,7 @@
       <c r="F36" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="422"/>
+      <c r="G36" s="421"/>
     </row>
     <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
@@ -31098,7 +31099,7 @@
       <c r="F37" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="422"/>
+      <c r="G37" s="421"/>
     </row>
     <row r="38" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -31119,7 +31120,7 @@
       <c r="F38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="422"/>
+      <c r="G38" s="421"/>
     </row>
     <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="68" t="s">
@@ -31138,7 +31139,7 @@
       <c r="F39" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="422"/>
+      <c r="G39" s="421"/>
     </row>
     <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68" t="s">
@@ -31157,7 +31158,7 @@
       <c r="F40" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="422"/>
+      <c r="G40" s="421"/>
     </row>
     <row r="41" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
@@ -31176,7 +31177,7 @@
       <c r="F41" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="G41" s="422"/>
+      <c r="G41" s="421"/>
     </row>
     <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
@@ -31195,7 +31196,7 @@
       <c r="F42" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="422"/>
+      <c r="G42" s="421"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
@@ -31214,7 +31215,7 @@
       <c r="F43" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="422"/>
+      <c r="G43" s="421"/>
     </row>
     <row r="44" spans="1:7" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="68" t="s">
@@ -31233,7 +31234,7 @@
       <c r="F44" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="422"/>
+      <c r="G44" s="421"/>
     </row>
     <row r="45" spans="1:7" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="325" t="s">
@@ -31252,7 +31253,7 @@
       <c r="F45" s="326" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="422"/>
+      <c r="G45" s="421"/>
     </row>
     <row r="46" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="68" t="s">
@@ -31273,7 +31274,7 @@
       <c r="F46" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G46" s="422"/>
+      <c r="G46" s="421"/>
     </row>
     <row r="47" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
@@ -31294,7 +31295,7 @@
       <c r="F47" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G47" s="422"/>
+      <c r="G47" s="421"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
@@ -31315,7 +31316,7 @@
       <c r="F48" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="423"/>
+      <c r="G48" s="422"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
@@ -31331,7 +31332,7 @@
       <c r="G50" s="252"/>
     </row>
     <row r="51" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="429" t="s">
+      <c r="A51" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B51" s="413" t="s">
@@ -31350,7 +31351,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="430"/>
+      <c r="A52" s="440"/>
       <c r="B52" s="49" t="s">
         <v>226</v>
       </c>
@@ -31451,7 +31452,7 @@
       <c r="G58" s="252"/>
     </row>
     <row r="59" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="429" t="s">
+      <c r="A59" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B59" s="413" t="s">
@@ -31470,7 +31471,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="430"/>
+      <c r="A60" s="440"/>
       <c r="B60" s="49" t="s">
         <v>226</v>
       </c>
@@ -31512,7 +31513,7 @@
       <c r="G63" s="252"/>
     </row>
     <row r="64" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="429" t="s">
+      <c r="A64" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B64" s="413" t="s">
@@ -31531,7 +31532,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="430"/>
+      <c r="A65" s="440"/>
       <c r="B65" s="49" t="s">
         <v>226</v>
       </c>
@@ -31564,7 +31565,7 @@
       <c r="F66" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G66" s="428"/>
+      <c r="G66" s="420"/>
     </row>
     <row r="67" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -31583,7 +31584,7 @@
       <c r="F67" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="422"/>
+      <c r="G67" s="421"/>
     </row>
     <row r="68" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
@@ -31602,7 +31603,7 @@
       <c r="F68" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="422"/>
+      <c r="G68" s="421"/>
     </row>
     <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
@@ -31621,7 +31622,7 @@
       <c r="F69" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G69" s="422"/>
+      <c r="G69" s="421"/>
     </row>
     <row r="70" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="63" t="s">
@@ -31640,7 +31641,7 @@
       <c r="F70" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="422"/>
+      <c r="G70" s="421"/>
     </row>
     <row r="71" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="63" t="s">
@@ -31659,7 +31660,7 @@
       <c r="F71" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="423"/>
+      <c r="G71" s="422"/>
     </row>
     <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="50"/>
@@ -31670,7 +31671,7 @@
       <c r="G73" s="252"/>
     </row>
     <row r="74" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="429" t="s">
+      <c r="A74" s="439" t="s">
         <v>113</v>
       </c>
       <c r="B74" s="413" t="s">
@@ -31689,7 +31690,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="430"/>
+      <c r="A75" s="440"/>
       <c r="B75" s="49" t="s">
         <v>226</v>
       </c>
@@ -31797,7 +31798,7 @@
       <c r="G81" s="252"/>
     </row>
     <row r="82" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="424" t="s">
+      <c r="A82" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B82" s="413" t="s">
@@ -31816,7 +31817,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="424"/>
+      <c r="A83" s="426"/>
       <c r="B83" s="49" t="s">
         <v>226</v>
       </c>
@@ -32004,7 +32005,7 @@
       <c r="F93" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G93" s="428" t="s">
+      <c r="G93" s="420" t="s">
         <v>599</v>
       </c>
     </row>
@@ -32025,7 +32026,7 @@
       <c r="F94" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G94" s="422"/>
+      <c r="G94" s="421"/>
       <c r="H94"/>
     </row>
     <row r="95" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32047,7 +32048,7 @@
       <c r="F95" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G95" s="422"/>
+      <c r="G95" s="421"/>
       <c r="H95"/>
     </row>
     <row r="96" spans="1:8" s="122" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32067,7 +32068,7 @@
       <c r="F96" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G96" s="422"/>
+      <c r="G96" s="421"/>
       <c r="H96"/>
     </row>
     <row r="97" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32087,7 +32088,7 @@
       <c r="F97" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G97" s="422"/>
+      <c r="G97" s="421"/>
       <c r="H97"/>
     </row>
     <row r="98" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32097,7 +32098,7 @@
       <c r="D98" s="26"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
-      <c r="G98" s="422"/>
+      <c r="G98" s="421"/>
       <c r="H98"/>
     </row>
     <row r="99" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32119,7 +32120,7 @@
       <c r="F99" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G99" s="422"/>
+      <c r="G99" s="421"/>
       <c r="H99"/>
     </row>
     <row r="100" spans="1:8" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32139,7 +32140,7 @@
       <c r="F100" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G100" s="423"/>
+      <c r="G100" s="422"/>
     </row>
     <row r="101" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="34"/>
@@ -32154,7 +32155,7 @@
       <c r="G102" s="252"/>
     </row>
     <row r="103" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="429" t="s">
+      <c r="A103" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B103" s="413" t="s">
@@ -32173,7 +32174,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="430"/>
+      <c r="A104" s="440"/>
       <c r="B104" s="49" t="s">
         <v>226</v>
       </c>
@@ -32206,7 +32207,7 @@
       <c r="F105" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G105" s="440"/>
+      <c r="G105" s="435"/>
     </row>
     <row r="106" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="63" t="s">
@@ -32263,7 +32264,7 @@
       <c r="F108" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G108" s="441"/>
+      <c r="G108" s="436"/>
     </row>
     <row r="109" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="35"/>
@@ -32279,7 +32280,7 @@
       <c r="G110" s="247"/>
     </row>
     <row r="111" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="426" t="s">
+      <c r="A111" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B111" s="413" t="s">
@@ -32298,7 +32299,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="427"/>
+      <c r="A112" s="425"/>
       <c r="B112" s="49" t="s">
         <v>0</v>
       </c>
@@ -32331,7 +32332,7 @@
       <c r="F113" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="G113" s="485" t="s">
+      <c r="G113" s="488" t="s">
         <v>531</v>
       </c>
     </row>
@@ -32368,7 +32369,7 @@
       <c r="G116" s="252"/>
     </row>
     <row r="117" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="429" t="s">
+      <c r="A117" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B117" s="413" t="s">
@@ -32387,7 +32388,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="430"/>
+      <c r="A118" s="440"/>
       <c r="B118" s="49" t="s">
         <v>226</v>
       </c>
@@ -32420,7 +32421,7 @@
       <c r="F119" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G119" s="433"/>
+      <c r="G119" s="437"/>
     </row>
     <row r="120" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -32439,7 +32440,7 @@
       <c r="F120" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G120" s="420"/>
+      <c r="G120" s="427"/>
     </row>
     <row r="121" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="63" t="s">
@@ -32458,7 +32459,7 @@
       <c r="F121" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G121" s="420"/>
+      <c r="G121" s="427"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
@@ -32477,7 +32478,7 @@
       <c r="F122" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G122" s="420"/>
+      <c r="G122" s="427"/>
     </row>
     <row r="123" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -32496,7 +32497,7 @@
       <c r="F123" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G123" s="420"/>
+      <c r="G123" s="427"/>
     </row>
     <row r="124" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
@@ -32515,7 +32516,7 @@
       <c r="F124" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G124" s="420"/>
+      <c r="G124" s="427"/>
     </row>
     <row r="125" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
@@ -32534,7 +32535,7 @@
       <c r="F125" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="G125" s="420"/>
+      <c r="G125" s="427"/>
     </row>
     <row r="126" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
@@ -32553,7 +32554,7 @@
       <c r="F126" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="G126" s="420"/>
+      <c r="G126" s="427"/>
     </row>
     <row r="127" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
@@ -32572,7 +32573,7 @@
       <c r="F127" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G127" s="420"/>
+      <c r="G127" s="427"/>
     </row>
     <row r="128" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
@@ -32591,7 +32592,7 @@
       <c r="F128" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G128" s="420"/>
+      <c r="G128" s="427"/>
     </row>
     <row r="129" spans="1:7" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="63" t="s">
@@ -32610,7 +32611,7 @@
       <c r="F129" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G129" s="420"/>
+      <c r="G129" s="427"/>
     </row>
     <row r="130" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
@@ -32629,7 +32630,7 @@
       <c r="F130" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G130" s="420"/>
+      <c r="G130" s="427"/>
     </row>
     <row r="131" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
@@ -32648,7 +32649,7 @@
       <c r="F131" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G131" s="421"/>
+      <c r="G131" s="428"/>
     </row>
     <row r="132" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G132" s="252"/>
@@ -32850,6 +32851,56 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="66">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G119:G131"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="G105:G108"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G9:G27"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E117:F117"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="B103:C103"/>
@@ -32866,56 +32917,6 @@
     <mergeCell ref="G82:G83"/>
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="E82:F82"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G9:G27"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="G119:G131"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="G105:G108"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -33072,11 +33073,11 @@
       <c r="G2" s="245"/>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="489" t="s">
+      <c r="A3" s="495" t="s">
         <v>616</v>
       </c>
-      <c r="B3" s="490"/>
-      <c r="C3" s="491"/>
+      <c r="B3" s="496"/>
+      <c r="C3" s="497"/>
       <c r="D3" s="175"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -33094,33 +33095,33 @@
       <c r="G4" s="257"/>
     </row>
     <row r="5" spans="1:7" s="123" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="425" t="s">
+      <c r="A5" s="423" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431" t="s">
+      <c r="C5" s="438"/>
+      <c r="D5" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="431" t="s">
+      <c r="E5" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="431"/>
+      <c r="F5" s="438"/>
       <c r="G5" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="124" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="425"/>
+      <c r="A6" s="423"/>
       <c r="B6" s="185" t="s">
         <v>226</v>
       </c>
       <c r="C6" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="431"/>
+      <c r="D6" s="438"/>
       <c r="E6" s="185" t="s">
         <v>225</v>
       </c>
@@ -33504,10 +33505,10 @@
       <c r="D28" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="431" t="s">
+      <c r="E28" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F28" s="431"/>
+      <c r="F28" s="438"/>
       <c r="G28" s="417" t="s">
         <v>516</v>
       </c>
@@ -33884,33 +33885,33 @@
       <c r="G48" s="252"/>
     </row>
     <row r="49" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="425" t="s">
+      <c r="A49" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="431" t="s">
+      <c r="B49" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="431"/>
-      <c r="D49" s="431" t="s">
+      <c r="C49" s="438"/>
+      <c r="D49" s="438" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="431" t="s">
+      <c r="E49" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F49" s="431"/>
+      <c r="F49" s="438"/>
       <c r="G49" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="124" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="425"/>
+      <c r="A50" s="423"/>
       <c r="B50" s="185" t="s">
         <v>226</v>
       </c>
       <c r="C50" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="431"/>
+      <c r="D50" s="438"/>
       <c r="E50" s="185" t="s">
         <v>225</v>
       </c>
@@ -34041,10 +34042,10 @@
       <c r="D58" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="431" t="s">
+      <c r="E58" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F58" s="431"/>
+      <c r="F58" s="438"/>
       <c r="G58" s="417" t="s">
         <v>516</v>
       </c>
@@ -34102,10 +34103,10 @@
       <c r="D63" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="431" t="s">
+      <c r="E63" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F63" s="431"/>
+      <c r="F63" s="438"/>
       <c r="G63" s="417" t="s">
         <v>516</v>
       </c>
@@ -34273,10 +34274,10 @@
       <c r="D73" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="431" t="s">
+      <c r="E73" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F73" s="431"/>
+      <c r="F73" s="438"/>
       <c r="G73" s="417" t="s">
         <v>516</v>
       </c>
@@ -34315,7 +34316,7 @@
       <c r="F75" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G75" s="440"/>
+      <c r="G75" s="435"/>
     </row>
     <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -34372,7 +34373,7 @@
       <c r="F78" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G78" s="441"/>
+      <c r="G78" s="436"/>
     </row>
     <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
@@ -34388,7 +34389,7 @@
       <c r="G80" s="252"/>
     </row>
     <row r="81" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="424" t="s">
+      <c r="A81" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B81" s="413" t="s">
@@ -34398,16 +34399,16 @@
       <c r="D81" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="431" t="s">
+      <c r="E81" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F81" s="431"/>
+      <c r="F81" s="438"/>
       <c r="G81" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="125" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="424"/>
+      <c r="A82" s="426"/>
       <c r="B82" s="185" t="s">
         <v>226</v>
       </c>
@@ -34440,7 +34441,7 @@
       <c r="F83" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="446"/>
+      <c r="G83" s="445"/>
     </row>
     <row r="84" spans="1:7" s="305" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="306" t="s">
@@ -34459,7 +34460,7 @@
       <c r="F84" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="447"/>
+      <c r="G84" s="446"/>
     </row>
     <row r="85" spans="1:7" s="132" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -34478,7 +34479,7 @@
       <c r="F85" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G85" s="447"/>
+      <c r="G85" s="446"/>
     </row>
     <row r="86" spans="1:7" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="154" t="s">
@@ -34497,7 +34498,7 @@
       <c r="F86" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="447"/>
+      <c r="G86" s="446"/>
     </row>
     <row r="87" spans="1:7" s="132" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -34516,7 +34517,7 @@
       <c r="F87" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G87" s="448"/>
+      <c r="G87" s="447"/>
     </row>
     <row r="88" spans="1:7" s="132" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
@@ -34547,10 +34548,10 @@
       <c r="D90" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="431" t="s">
+      <c r="E90" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F90" s="431"/>
+      <c r="F90" s="438"/>
       <c r="G90" s="417" t="s">
         <v>516</v>
       </c>
@@ -34744,10 +34745,10 @@
       <c r="D102" s="415" t="s">
         <v>82</v>
       </c>
-      <c r="E102" s="431" t="s">
+      <c r="E102" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F102" s="431"/>
+      <c r="F102" s="438"/>
       <c r="G102" s="417" t="s">
         <v>516</v>
       </c>
@@ -34865,7 +34866,7 @@
       <c r="G109" s="247"/>
     </row>
     <row r="110" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="426" t="s">
+      <c r="A110" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B110" s="413" t="s">
@@ -34884,7 +34885,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="427"/>
+      <c r="A111" s="425"/>
       <c r="B111" s="49" t="s">
         <v>0</v>
       </c>
@@ -34957,7 +34958,7 @@
       <c r="G115" s="253"/>
     </row>
     <row r="116" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="429" t="s">
+      <c r="A116" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B116" s="413" t="s">
@@ -34965,16 +34966,16 @@
       </c>
       <c r="C116" s="414"/>
       <c r="D116" s="15"/>
-      <c r="E116" s="431" t="s">
+      <c r="E116" s="438" t="s">
         <v>418</v>
       </c>
-      <c r="F116" s="431"/>
+      <c r="F116" s="438"/>
       <c r="G116" s="417" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="430"/>
+      <c r="A117" s="440"/>
       <c r="B117" s="185" t="s">
         <v>226</v>
       </c>
@@ -35286,13 +35287,13 @@
       <c r="A137" s="219" t="s">
         <v>609</v>
       </c>
-      <c r="B137" s="492" t="s">
+      <c r="B137" s="494" t="s">
         <v>349</v>
       </c>
-      <c r="C137" s="492"/>
-      <c r="D137" s="492"/>
-      <c r="E137" s="492"/>
-      <c r="F137" s="492"/>
+      <c r="C137" s="494"/>
+      <c r="D137" s="494"/>
+      <c r="E137" s="494"/>
+      <c r="F137" s="494"/>
       <c r="G137" s="266" t="s">
         <v>324</v>
       </c>
@@ -35301,52 +35302,52 @@
       <c r="A138" s="195" t="s">
         <v>347</v>
       </c>
-      <c r="B138" s="497" t="s">
+      <c r="B138" s="493" t="s">
         <v>352</v>
       </c>
-      <c r="C138" s="497"/>
-      <c r="D138" s="497"/>
-      <c r="E138" s="497"/>
-      <c r="F138" s="497"/>
+      <c r="C138" s="493"/>
+      <c r="D138" s="493"/>
+      <c r="E138" s="493"/>
+      <c r="F138" s="493"/>
       <c r="G138" s="352" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="493" t="s">
+      <c r="A139" s="489" t="s">
         <v>348</v>
       </c>
-      <c r="B139" s="478" t="s">
+      <c r="B139" s="475" t="s">
         <v>351</v>
       </c>
-      <c r="C139" s="478"/>
-      <c r="D139" s="478"/>
-      <c r="E139" s="478"/>
-      <c r="F139" s="478"/>
+      <c r="C139" s="475"/>
+      <c r="D139" s="475"/>
+      <c r="E139" s="475"/>
+      <c r="F139" s="475"/>
       <c r="G139" s="262" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="494"/>
-      <c r="B140" s="479" t="s">
+      <c r="A140" s="490"/>
+      <c r="B140" s="476" t="s">
         <v>350</v>
       </c>
-      <c r="C140" s="479"/>
-      <c r="D140" s="479"/>
-      <c r="E140" s="479"/>
-      <c r="F140" s="479"/>
+      <c r="C140" s="476"/>
+      <c r="D140" s="476"/>
+      <c r="E140" s="476"/>
+      <c r="F140" s="476"/>
       <c r="G140" s="264" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="495"/>
-      <c r="B141" s="496"/>
-      <c r="C141" s="496"/>
-      <c r="D141" s="496"/>
-      <c r="E141" s="496"/>
-      <c r="F141" s="496"/>
+      <c r="A141" s="491"/>
+      <c r="B141" s="492"/>
+      <c r="C141" s="492"/>
+      <c r="D141" s="492"/>
+      <c r="E141" s="492"/>
+      <c r="F141" s="492"/>
       <c r="G141" s="265" t="s">
         <v>414</v>
       </c>
@@ -35354,6 +35355,60 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="70">
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G75:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G25"/>
+    <mergeCell ref="G30:G46"/>
+    <mergeCell ref="G51:G55"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E73:F73"/>
     <mergeCell ref="A139:A141"/>
     <mergeCell ref="B139:F139"/>
     <mergeCell ref="B140:F141"/>
@@ -35370,60 +35425,6 @@
     <mergeCell ref="D102:D103"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="B138:F138"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G25"/>
-    <mergeCell ref="G30:G46"/>
-    <mergeCell ref="G51:G55"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G83:G87"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G75:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -35626,7 +35627,7 @@
       <c r="G4" s="246"/>
     </row>
     <row r="5" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -35645,7 +35646,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -35996,7 +35997,7 @@
       <c r="G26" s="247"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="413" t="s">
@@ -36015,7 +36016,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="430"/>
+      <c r="A28" s="440"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
@@ -36388,7 +36389,7 @@
       <c r="G47" s="247"/>
     </row>
     <row r="48" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="429" t="s">
+      <c r="A48" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="413" t="s">
@@ -36407,7 +36408,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="430"/>
+      <c r="A49" s="440"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -36442,7 +36443,7 @@
       <c r="F50" s="93">
         <v>30</v>
       </c>
-      <c r="G50" s="434" t="s">
+      <c r="G50" s="429" t="s">
         <v>569</v>
       </c>
     </row>
@@ -36528,7 +36529,7 @@
       <c r="G55" s="247"/>
     </row>
     <row r="56" spans="1:14" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -36547,7 +36548,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -36602,7 +36603,7 @@
       <c r="N60" s="315"/>
     </row>
     <row r="61" spans="1:14" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="429" t="s">
+      <c r="A61" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="413" t="s">
@@ -36621,7 +36622,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="430"/>
+      <c r="A62" s="440"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -36782,7 +36783,7 @@
       <c r="G70" s="247"/>
     </row>
     <row r="71" spans="1:14" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -36801,7 +36802,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>0</v>
       </c>
@@ -36834,7 +36835,7 @@
       <c r="F73" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G73" s="428"/>
+      <c r="G73" s="420"/>
     </row>
     <row r="74" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="s">
@@ -36853,7 +36854,7 @@
       <c r="F74" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G74" s="422"/>
+      <c r="G74" s="421"/>
     </row>
     <row r="75" spans="1:14" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="63" t="s">
@@ -36872,7 +36873,7 @@
       <c r="F75" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G75" s="422"/>
+      <c r="G75" s="421"/>
       <c r="N75" s="315"/>
     </row>
     <row r="76" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36892,7 +36893,7 @@
       <c r="F76" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G76" s="423"/>
+      <c r="G76" s="422"/>
     </row>
     <row r="77" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -36913,7 +36914,7 @@
       <c r="G78" s="247"/>
     </row>
     <row r="79" spans="1:14" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -36932,7 +36933,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>0</v>
       </c>
@@ -36965,7 +36966,7 @@
       <c r="F81" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="446"/>
+      <c r="G81" s="445"/>
       <c r="H81" s="127"/>
     </row>
     <row r="82" spans="1:8" s="305" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -36985,7 +36986,7 @@
       <c r="F82" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="447"/>
+      <c r="G82" s="446"/>
       <c r="H82" s="127"/>
     </row>
     <row r="83" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -37005,7 +37006,7 @@
       <c r="F83" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="447"/>
+      <c r="G83" s="446"/>
     </row>
     <row r="84" spans="1:8" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -37024,7 +37025,7 @@
       <c r="F84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="447"/>
+      <c r="G84" s="446"/>
     </row>
     <row r="85" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -37043,7 +37044,7 @@
       <c r="F85" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G85" s="448"/>
+      <c r="G85" s="447"/>
     </row>
     <row r="86" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="140"/>
@@ -37064,14 +37065,14 @@
       <c r="G87" s="247"/>
     </row>
     <row r="88" spans="1:8" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="425" t="s">
+      <c r="A88" s="423" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="431" t="s">
+      <c r="B88" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="431"/>
-      <c r="D88" s="431" t="s">
+      <c r="C88" s="438"/>
+      <c r="D88" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E88" s="413" t="s">
@@ -37083,14 +37084,14 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="425"/>
+      <c r="A89" s="423"/>
       <c r="B89" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D89" s="431"/>
+      <c r="D89" s="438"/>
       <c r="E89" s="185" t="s">
         <v>225</v>
       </c>
@@ -37266,7 +37267,7 @@
       <c r="G99" s="247"/>
     </row>
     <row r="100" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -37285,7 +37286,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="430"/>
+      <c r="A101" s="440"/>
       <c r="B101" s="49" t="s">
         <v>0</v>
       </c>
@@ -37402,7 +37403,7 @@
       <c r="G107" s="247"/>
     </row>
     <row r="108" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -37421,7 +37422,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -37494,7 +37495,7 @@
       <c r="G113" s="247"/>
     </row>
     <row r="114" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="429" t="s">
+      <c r="A114" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B114" s="413" t="s">
@@ -37513,7 +37514,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="430"/>
+      <c r="A115" s="440"/>
       <c r="B115" s="49" t="s">
         <v>0</v>
       </c>
@@ -37984,16 +37985,45 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="G116:G128"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G29:G45"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G7:G24"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="G63:G68"/>
     <mergeCell ref="G108:G109"/>
@@ -38010,45 +38040,16 @@
     <mergeCell ref="D108:D109"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G7:G24"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G29:G45"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G116:G128"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="A108:A109"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -38223,7 +38224,7 @@
       <c r="D4" s="245"/>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -38235,7 +38236,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -38457,7 +38458,7 @@
       <c r="D26" s="267"/>
     </row>
     <row r="27" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="413" t="s">
@@ -38469,7 +38470,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="430"/>
+      <c r="A28" s="440"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
@@ -38693,7 +38694,7 @@
       <c r="D47" s="252"/>
     </row>
     <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="429" t="s">
+      <c r="A48" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="413" t="s">
@@ -38705,7 +38706,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="430"/>
+      <c r="A49" s="440"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -38724,7 +38725,7 @@
       <c r="C50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="428"/>
+      <c r="D50" s="420"/>
     </row>
     <row r="51" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="153" t="s">
@@ -38736,7 +38737,7 @@
       <c r="C51" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="422"/>
+      <c r="D51" s="421"/>
     </row>
     <row r="52" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
@@ -38748,7 +38749,7 @@
       <c r="C52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="422"/>
+      <c r="D52" s="421"/>
     </row>
     <row r="53" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -38760,7 +38761,7 @@
       <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="423"/>
+      <c r="D53" s="422"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
@@ -38772,7 +38773,7 @@
       <c r="D55" s="252"/>
     </row>
     <row r="56" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -38784,7 +38785,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -38812,19 +38813,19 @@
       <c r="D60" s="252"/>
     </row>
     <row r="61" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="432" t="s">
+      <c r="A61" s="441" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="431" t="s">
+      <c r="B61" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="431"/>
+      <c r="C61" s="438"/>
       <c r="D61" s="417" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="432"/>
+      <c r="A62" s="441"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -38843,7 +38844,7 @@
       <c r="C63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="428"/>
+      <c r="D63" s="420"/>
     </row>
     <row r="64" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="63" t="s">
@@ -38855,7 +38856,7 @@
       <c r="C64" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="422"/>
+      <c r="D64" s="421"/>
     </row>
     <row r="65" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="63" t="s">
@@ -38867,7 +38868,7 @@
       <c r="C65" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="422"/>
+      <c r="D65" s="421"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
@@ -38879,7 +38880,7 @@
       <c r="C66" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D66" s="422"/>
+      <c r="D66" s="421"/>
     </row>
     <row r="67" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -38891,7 +38892,7 @@
       <c r="C67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="422"/>
+      <c r="D67" s="421"/>
     </row>
     <row r="68" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
@@ -38903,7 +38904,7 @@
       <c r="C68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="423"/>
+      <c r="D68" s="422"/>
     </row>
     <row r="69" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="85"/>
@@ -38915,7 +38916,7 @@
       <c r="D70" s="252"/>
     </row>
     <row r="71" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -38927,7 +38928,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>0</v>
       </c>
@@ -38946,7 +38947,7 @@
       <c r="C73" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="428"/>
+      <c r="D73" s="420"/>
     </row>
     <row r="74" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="s">
@@ -38958,7 +38959,7 @@
       <c r="C74" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="422"/>
+      <c r="D74" s="421"/>
     </row>
     <row r="75" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="63" t="s">
@@ -38970,7 +38971,7 @@
       <c r="C75" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D75" s="422"/>
+      <c r="D75" s="421"/>
     </row>
     <row r="76" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -38982,7 +38983,7 @@
       <c r="C76" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="423"/>
+      <c r="D76" s="422"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -38995,7 +38996,7 @@
       <c r="D78" s="252"/>
     </row>
     <row r="79" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -39007,7 +39008,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>0</v>
       </c>
@@ -39026,7 +39027,7 @@
       <c r="C81" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="446"/>
+      <c r="D81" s="445"/>
     </row>
     <row r="82" spans="1:4" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="306" t="s">
@@ -39038,7 +39039,7 @@
       <c r="C82" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="447"/>
+      <c r="D82" s="446"/>
     </row>
     <row r="83" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -39050,7 +39051,7 @@
       <c r="C83" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="447"/>
+      <c r="D83" s="446"/>
     </row>
     <row r="84" spans="1:4" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -39062,7 +39063,7 @@
       <c r="C84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="447"/>
+      <c r="D84" s="446"/>
     </row>
     <row r="85" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -39074,7 +39075,7 @@
       <c r="C85" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="448"/>
+      <c r="D85" s="447"/>
     </row>
     <row r="86" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -39134,7 +39135,7 @@
       <c r="C91" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D91" s="422"/>
+      <c r="D91" s="421"/>
     </row>
     <row r="92" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
@@ -39146,7 +39147,7 @@
       <c r="C92" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="422"/>
+      <c r="D92" s="421"/>
     </row>
     <row r="93" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
@@ -39158,7 +39159,7 @@
       <c r="C93" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D93" s="422"/>
+      <c r="D93" s="421"/>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
@@ -39170,13 +39171,13 @@
       <c r="C94" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D94" s="422"/>
+      <c r="D94" s="421"/>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
-      <c r="D95" s="422"/>
+      <c r="D95" s="421"/>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
@@ -39188,7 +39189,7 @@
       <c r="C96" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="422"/>
+      <c r="D96" s="421"/>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
@@ -39200,7 +39201,7 @@
       <c r="C97" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="423"/>
+      <c r="D97" s="422"/>
     </row>
     <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="34"/>
@@ -39212,7 +39213,7 @@
       <c r="D99" s="252"/>
     </row>
     <row r="100" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="439" t="s">
         <v>135</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -39224,7 +39225,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="430"/>
+      <c r="A101" s="440"/>
       <c r="B101" s="49" t="s">
         <v>0</v>
       </c>
@@ -39292,7 +39293,7 @@
       <c r="D107" s="252"/>
     </row>
     <row r="108" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -39304,7 +39305,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -39346,7 +39347,7 @@
       <c r="D113" s="252"/>
     </row>
     <row r="114" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="429" t="s">
+      <c r="A114" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B114" s="413" t="s">
@@ -39358,7 +39359,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="430"/>
+      <c r="A115" s="440"/>
       <c r="B115" s="49" t="s">
         <v>0</v>
       </c>
@@ -39655,34 +39656,6 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A61:A62"/>
     <mergeCell ref="D116:D128"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D56:D57"/>
@@ -39699,6 +39672,34 @@
     <mergeCell ref="D81:D85"/>
     <mergeCell ref="D102:D105"/>
     <mergeCell ref="D88:D89"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D108:D109"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -39835,7 +39836,7 @@
       <c r="D4" s="257"/>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -39847,7 +39848,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -39866,7 +39867,7 @@
       <c r="C7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="428"/>
+      <c r="D7" s="420"/>
     </row>
     <row r="8" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
@@ -39878,7 +39879,7 @@
       <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="422"/>
+      <c r="D8" s="421"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
@@ -39890,7 +39891,7 @@
       <c r="C9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="422"/>
+      <c r="D9" s="421"/>
     </row>
     <row r="10" spans="1:4" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
@@ -39902,7 +39903,7 @@
       <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="422"/>
+      <c r="D10" s="421"/>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
@@ -39914,7 +39915,7 @@
       <c r="C11" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="422"/>
+      <c r="D11" s="421"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -39926,7 +39927,7 @@
       <c r="C12" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="422"/>
+      <c r="D12" s="421"/>
     </row>
     <row r="13" spans="1:4" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
@@ -39938,7 +39939,7 @@
       <c r="C13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="422"/>
+      <c r="D13" s="421"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -39950,7 +39951,7 @@
       <c r="C14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="422"/>
+      <c r="D14" s="421"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
@@ -39962,13 +39963,13 @@
       <c r="C15" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="422"/>
+      <c r="D15" s="421"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="422"/>
+      <c r="D16" s="421"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
@@ -39980,13 +39981,13 @@
       <c r="C17" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="422"/>
+      <c r="D17" s="421"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
-      <c r="D18" s="422"/>
+      <c r="D18" s="421"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -39998,7 +39999,7 @@
       <c r="C19" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="422"/>
+      <c r="D19" s="421"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
@@ -40010,7 +40011,7 @@
       <c r="C20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="422"/>
+      <c r="D20" s="421"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -40022,7 +40023,7 @@
       <c r="C21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="422"/>
+      <c r="D21" s="421"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
@@ -40034,13 +40035,13 @@
       <c r="C22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="422"/>
+      <c r="D22" s="421"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="422"/>
+      <c r="D23" s="421"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
@@ -40052,7 +40053,7 @@
       <c r="C24" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="423"/>
+      <c r="D24" s="422"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
@@ -40067,7 +40068,7 @@
       <c r="D26" s="252"/>
     </row>
     <row r="27" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="413" t="s">
@@ -40079,7 +40080,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="430"/>
+      <c r="A28" s="440"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
@@ -40098,7 +40099,7 @@
       <c r="C29" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="434" t="s">
+      <c r="D29" s="429" t="s">
         <v>514</v>
       </c>
     </row>
@@ -40305,7 +40306,7 @@
       <c r="D47" s="252"/>
     </row>
     <row r="48" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="429" t="s">
+      <c r="A48" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="413" t="s">
@@ -40317,7 +40318,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="430"/>
+      <c r="A49" s="440"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -40386,7 +40387,7 @@
       <c r="D55" s="252"/>
     </row>
     <row r="56" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -40398,7 +40399,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -40426,7 +40427,7 @@
       <c r="D60" s="252"/>
     </row>
     <row r="61" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="429" t="s">
+      <c r="A61" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="413" t="s">
@@ -40438,7 +40439,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="430"/>
+      <c r="A62" s="440"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -40531,7 +40532,7 @@
       <c r="D70" s="252"/>
     </row>
     <row r="71" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -40543,7 +40544,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>0</v>
       </c>
@@ -40562,7 +40563,7 @@
       <c r="C73" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="428"/>
+      <c r="D73" s="420"/>
     </row>
     <row r="74" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="s">
@@ -40574,7 +40575,7 @@
       <c r="C74" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="422"/>
+      <c r="D74" s="421"/>
     </row>
     <row r="75" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="63" t="s">
@@ -40586,7 +40587,7 @@
       <c r="C75" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D75" s="422"/>
+      <c r="D75" s="421"/>
     </row>
     <row r="76" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -40598,7 +40599,7 @@
       <c r="C76" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="423"/>
+      <c r="D76" s="422"/>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -40611,7 +40612,7 @@
       <c r="D78" s="252"/>
     </row>
     <row r="79" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -40623,7 +40624,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>0</v>
       </c>
@@ -40642,7 +40643,7 @@
       <c r="C81" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="446"/>
+      <c r="D81" s="445"/>
     </row>
     <row r="82" spans="1:4" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="306" t="s">
@@ -40654,7 +40655,7 @@
       <c r="C82" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="447"/>
+      <c r="D82" s="446"/>
     </row>
     <row r="83" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -40666,7 +40667,7 @@
       <c r="C83" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="447"/>
+      <c r="D83" s="446"/>
     </row>
     <row r="84" spans="1:4" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -40678,7 +40679,7 @@
       <c r="C84" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="447"/>
+      <c r="D84" s="446"/>
     </row>
     <row r="85" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -40690,7 +40691,7 @@
       <c r="C85" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="448"/>
+      <c r="D85" s="447"/>
     </row>
     <row r="86" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -40736,7 +40737,7 @@
       <c r="C90" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D90" s="440"/>
+      <c r="D90" s="435"/>
     </row>
     <row r="91" spans="1:4" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
@@ -40814,7 +40815,7 @@
       <c r="C97" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="441"/>
+      <c r="D97" s="436"/>
     </row>
     <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="34"/>
@@ -40826,7 +40827,7 @@
       <c r="D99" s="252"/>
     </row>
     <row r="100" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -40838,7 +40839,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="430"/>
+      <c r="A101" s="440"/>
       <c r="B101" s="49" t="s">
         <v>0</v>
       </c>
@@ -40906,7 +40907,7 @@
       <c r="D107" s="252"/>
     </row>
     <row r="108" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -40918,7 +40919,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -40960,7 +40961,7 @@
       <c r="D113" s="252"/>
     </row>
     <row r="114" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="429" t="s">
+      <c r="A114" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B114" s="413" t="s">
@@ -40972,7 +40973,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="430"/>
+      <c r="A115" s="440"/>
       <c r="B115" s="49" t="s">
         <v>0</v>
       </c>
@@ -41349,6 +41350,34 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="D116:D128"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D7:D24"/>
+    <mergeCell ref="D29:D45"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="D81:D85"/>
@@ -41365,34 +41394,6 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="D102:D105"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="D116:D128"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D7:D24"/>
-    <mergeCell ref="D29:D45"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D90:D97"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -41539,7 +41540,7 @@
       <c r="D6" s="141"/>
     </row>
     <row r="7" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="429" t="s">
+      <c r="A7" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="413" t="s">
@@ -41551,7 +41552,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="430"/>
+      <c r="A8" s="440"/>
       <c r="B8" s="49" t="s">
         <v>0</v>
       </c>
@@ -41773,7 +41774,7 @@
       <c r="D28" s="252"/>
     </row>
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="429" t="s">
+      <c r="A29" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="413" t="s">
@@ -41785,7 +41786,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="430"/>
+      <c r="A30" s="440"/>
       <c r="B30" s="49" t="s">
         <v>0</v>
       </c>
@@ -42009,7 +42010,7 @@
       <c r="D49" s="252"/>
     </row>
     <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="429" t="s">
+      <c r="A50" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="413" t="s">
@@ -42021,7 +42022,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="430"/>
+      <c r="A51" s="440"/>
       <c r="B51" s="49" t="s">
         <v>0</v>
       </c>
@@ -42085,7 +42086,7 @@
       <c r="D57" s="252"/>
     </row>
     <row r="58" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="429" t="s">
+      <c r="A58" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B58" s="413" t="s">
@@ -42097,7 +42098,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="430"/>
+      <c r="A59" s="440"/>
       <c r="B59" s="49" t="s">
         <v>0</v>
       </c>
@@ -42125,7 +42126,7 @@
       <c r="D62" s="252"/>
     </row>
     <row r="63" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="429" t="s">
+      <c r="A63" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="413" t="s">
@@ -42137,7 +42138,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="430"/>
+      <c r="A64" s="440"/>
       <c r="B64" s="49" t="s">
         <v>0</v>
       </c>
@@ -42156,7 +42157,7 @@
       <c r="C65" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="428"/>
+      <c r="D65" s="420"/>
     </row>
     <row r="66" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="63" t="s">
@@ -42168,7 +42169,7 @@
       <c r="C66" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="422"/>
+      <c r="D66" s="421"/>
     </row>
     <row r="67" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -42180,7 +42181,7 @@
       <c r="C67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="422"/>
+      <c r="D67" s="421"/>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
@@ -42192,7 +42193,7 @@
       <c r="C68" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="422"/>
+      <c r="D68" s="421"/>
     </row>
     <row r="69" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="63" t="s">
@@ -42204,7 +42205,7 @@
       <c r="C69" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="422"/>
+      <c r="D69" s="421"/>
     </row>
     <row r="70" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="63" t="s">
@@ -42216,7 +42217,7 @@
       <c r="C70" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="423"/>
+      <c r="D70" s="422"/>
     </row>
     <row r="71" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="85"/>
@@ -42228,7 +42229,7 @@
       <c r="D72" s="252"/>
     </row>
     <row r="73" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="429" t="s">
+      <c r="A73" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="413" t="s">
@@ -42240,7 +42241,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="430"/>
+      <c r="A74" s="440"/>
       <c r="B74" s="49" t="s">
         <v>0</v>
       </c>
@@ -42259,7 +42260,7 @@
       <c r="C75" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D75" s="428"/>
+      <c r="D75" s="420"/>
     </row>
     <row r="76" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -42271,7 +42272,7 @@
       <c r="C76" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D76" s="422"/>
+      <c r="D76" s="421"/>
     </row>
     <row r="77" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="63" t="s">
@@ -42283,7 +42284,7 @@
       <c r="C77" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D77" s="422"/>
+      <c r="D77" s="421"/>
     </row>
     <row r="78" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="63" t="s">
@@ -42295,7 +42296,7 @@
       <c r="C78" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="423"/>
+      <c r="D78" s="422"/>
     </row>
     <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
@@ -42308,7 +42309,7 @@
       <c r="D80" s="252"/>
     </row>
     <row r="81" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="424" t="s">
+      <c r="A81" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B81" s="413" t="s">
@@ -42320,7 +42321,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="424"/>
+      <c r="A82" s="426"/>
       <c r="B82" s="49" t="s">
         <v>0</v>
       </c>
@@ -42339,7 +42340,7 @@
       <c r="C83" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="446"/>
+      <c r="D83" s="445"/>
       <c r="E83" s="110"/>
     </row>
     <row r="84" spans="1:5" s="96" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -42352,7 +42353,7 @@
       <c r="C84" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="447"/>
+      <c r="D84" s="446"/>
       <c r="E84" s="110"/>
     </row>
     <row r="85" spans="1:5" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -42365,7 +42366,7 @@
       <c r="C85" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="447"/>
+      <c r="D85" s="446"/>
     </row>
     <row r="86" spans="1:5" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="154" t="s">
@@ -42377,7 +42378,7 @@
       <c r="C86" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D86" s="447"/>
+      <c r="D86" s="446"/>
     </row>
     <row r="87" spans="1:5" s="110" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -42389,7 +42390,7 @@
       <c r="C87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="448"/>
+      <c r="D87" s="447"/>
     </row>
     <row r="88" spans="1:5" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
@@ -42607,7 +42608,7 @@
       <c r="D109" s="252"/>
     </row>
     <row r="110" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="426" t="s">
+      <c r="A110" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B110" s="413" t="s">
@@ -42619,7 +42620,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="427"/>
+      <c r="A111" s="425"/>
       <c r="B111" s="49" t="s">
         <v>0</v>
       </c>
@@ -42661,7 +42662,7 @@
       <c r="D115" s="252"/>
     </row>
     <row r="116" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="429" t="s">
+      <c r="A116" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B116" s="413" t="s">
@@ -42673,7 +42674,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="430"/>
+      <c r="A117" s="440"/>
       <c r="B117" s="49" t="s">
         <v>0</v>
       </c>
@@ -43050,29 +43051,12 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="D118:D130"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D9:D26"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="D102:D103"/>
     <mergeCell ref="B63:C63"/>
@@ -43089,12 +43073,29 @@
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D9:D26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="D118:D130"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -43223,7 +43224,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="504" t="s">
@@ -43235,7 +43236,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="108" t="s">
         <v>175</v>
       </c>
@@ -43266,7 +43267,7 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="429" t="s">
+      <c r="A10" s="439" t="s">
         <v>104</v>
       </c>
       <c r="B10" s="504" t="s">
@@ -43278,7 +43279,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="430"/>
+      <c r="A11" s="440"/>
       <c r="B11" s="108" t="s">
         <v>175</v>
       </c>
@@ -43344,7 +43345,7 @@
       <c r="D18" s="248"/>
     </row>
     <row r="20" spans="1:4" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="429" t="s">
+      <c r="A20" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B20" s="504" t="s">
@@ -43356,7 +43357,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="430"/>
+      <c r="A21" s="440"/>
       <c r="B21" s="108" t="s">
         <v>175</v>
       </c>
@@ -43724,7 +43725,7 @@
       <c r="M6"/>
     </row>
     <row r="7" spans="1:13" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="429" t="s">
+      <c r="A7" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="413" t="s">
@@ -43745,7 +43746,7 @@
       <c r="M7"/>
     </row>
     <row r="8" spans="1:13" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="430"/>
+      <c r="A8" s="440"/>
       <c r="B8" s="49" t="s">
         <v>0</v>
       </c>
@@ -43976,7 +43977,7 @@
       <c r="D28" s="252"/>
     </row>
     <row r="29" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="429" t="s">
+      <c r="A29" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="413" t="s">
@@ -43988,7 +43989,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="430"/>
+      <c r="A30" s="440"/>
       <c r="B30" s="49" t="s">
         <v>0</v>
       </c>
@@ -44212,7 +44213,7 @@
       <c r="D49" s="252"/>
     </row>
     <row r="50" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="429" t="s">
+      <c r="A50" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="413" t="s">
@@ -44224,7 +44225,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="430"/>
+      <c r="A51" s="440"/>
       <c r="B51" s="49" t="s">
         <v>0</v>
       </c>
@@ -44243,7 +44244,7 @@
       <c r="C52" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="428"/>
+      <c r="D52" s="420"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -44255,7 +44256,7 @@
       <c r="C53" s="93">
         <v>1</v>
       </c>
-      <c r="D53" s="422"/>
+      <c r="D53" s="421"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="153" t="s">
@@ -44267,7 +44268,7 @@
       <c r="C54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="422"/>
+      <c r="D54" s="421"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="153" t="s">
@@ -44279,7 +44280,7 @@
       <c r="C55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="423"/>
+      <c r="D55" s="422"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="64"/>
@@ -44294,7 +44295,7 @@
       <c r="D57" s="247"/>
     </row>
     <row r="58" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="429" t="s">
+      <c r="A58" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B58" s="413" t="s">
@@ -44306,7 +44307,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="430"/>
+      <c r="A59" s="440"/>
       <c r="B59" s="49" t="s">
         <v>0</v>
       </c>
@@ -44340,7 +44341,7 @@
       <c r="D62" s="248"/>
     </row>
     <row r="63" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="429" t="s">
+      <c r="A63" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="413" t="s">
@@ -44352,7 +44353,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="430"/>
+      <c r="A64" s="440"/>
       <c r="B64" s="49" t="s">
         <v>0</v>
       </c>
@@ -44371,7 +44372,7 @@
       <c r="C65" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="428"/>
+      <c r="D65" s="420"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="63" t="s">
@@ -44383,7 +44384,7 @@
       <c r="C66" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="422"/>
+      <c r="D66" s="421"/>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -44395,7 +44396,7 @@
       <c r="C67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="422"/>
+      <c r="D67" s="421"/>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
@@ -44407,7 +44408,7 @@
       <c r="C68" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="422"/>
+      <c r="D68" s="421"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="63" t="s">
@@ -44419,7 +44420,7 @@
       <c r="C69" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="422"/>
+      <c r="D69" s="421"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="63" t="s">
@@ -44431,7 +44432,7 @@
       <c r="C70" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="423"/>
+      <c r="D70" s="422"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
@@ -44444,7 +44445,7 @@
       <c r="D72" s="252"/>
     </row>
     <row r="73" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="429" t="s">
+      <c r="A73" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="413" t="s">
@@ -44456,7 +44457,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="430"/>
+      <c r="A74" s="440"/>
       <c r="B74" s="49" t="s">
         <v>0</v>
       </c>
@@ -44524,7 +44525,7 @@
       <c r="D80" s="252"/>
     </row>
     <row r="81" spans="1:4" s="21" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="424" t="s">
+      <c r="A81" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B81" s="413" t="s">
@@ -44536,7 +44537,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" s="24" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="424"/>
+      <c r="A82" s="426"/>
       <c r="B82" s="49" t="s">
         <v>0</v>
       </c>
@@ -44555,7 +44556,7 @@
       <c r="C83" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="D83" s="446"/>
+      <c r="D83" s="445"/>
     </row>
     <row r="84" spans="1:4" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="306" t="s">
@@ -44567,7 +44568,7 @@
       <c r="C84" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="D84" s="447"/>
+      <c r="D84" s="446"/>
     </row>
     <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -44579,7 +44580,7 @@
       <c r="C85" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D85" s="447"/>
+      <c r="D85" s="446"/>
     </row>
     <row r="86" spans="1:4" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="154" t="s">
@@ -44591,7 +44592,7 @@
       <c r="C86" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D86" s="447"/>
+      <c r="D86" s="446"/>
     </row>
     <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
@@ -44603,7 +44604,7 @@
       <c r="C87" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D87" s="448"/>
+      <c r="D87" s="447"/>
     </row>
     <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21"/>
@@ -44647,7 +44648,7 @@
       <c r="C92" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="433"/>
+      <c r="D92" s="437"/>
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
@@ -44659,7 +44660,7 @@
       <c r="C93" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D93" s="420"/>
+      <c r="D93" s="427"/>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
@@ -44671,7 +44672,7 @@
       <c r="C94" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="420"/>
+      <c r="D94" s="427"/>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="89" t="s">
@@ -44683,7 +44684,7 @@
       <c r="C95" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D95" s="420"/>
+      <c r="D95" s="427"/>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="89" t="s">
@@ -44695,13 +44696,13 @@
       <c r="C96" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="420"/>
+      <c r="D96" s="427"/>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="89"/>
       <c r="B97" s="111"/>
       <c r="C97" s="111"/>
-      <c r="D97" s="420"/>
+      <c r="D97" s="427"/>
     </row>
     <row r="98" spans="1:4" s="119" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="149" t="s">
@@ -44713,7 +44714,7 @@
       <c r="C98" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="420"/>
+      <c r="D98" s="427"/>
     </row>
     <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
@@ -44725,7 +44726,7 @@
       <c r="C99" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="421"/>
+      <c r="D99" s="428"/>
     </row>
     <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="34"/>
@@ -44821,7 +44822,7 @@
       <c r="D109" s="252"/>
     </row>
     <row r="110" spans="1:4" s="21" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="426" t="s">
+      <c r="A110" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B110" s="413" t="s">
@@ -44833,7 +44834,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="427"/>
+      <c r="A111" s="425"/>
       <c r="B111" s="49" t="s">
         <v>0</v>
       </c>
@@ -45193,19 +45194,22 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="D9:D26"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D118:D130"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A116:A117"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="B90:C90"/>
@@ -45222,22 +45226,19 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D118:D130"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="D9:D26"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D83:D87"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -45362,7 +45363,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="504" t="s">
@@ -45374,7 +45375,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="108" t="s">
         <v>175</v>
       </c>
@@ -45402,7 +45403,7 @@
       <c r="D9" s="251"/>
     </row>
     <row r="10" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="429" t="s">
+      <c r="A10" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="504" t="s">
@@ -45414,7 +45415,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="430"/>
+      <c r="A11" s="440"/>
       <c r="B11" s="108" t="s">
         <v>175</v>
       </c>
@@ -45516,7 +45517,7 @@
     <row r="23" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="429" t="s">
+      <c r="A25" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="504" t="s">
@@ -45528,7 +45529,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="430"/>
+      <c r="A26" s="440"/>
       <c r="B26" s="108" t="s">
         <v>175</v>
       </c>
@@ -45547,7 +45548,7 @@
       <c r="C27" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="428" t="s">
+      <c r="D27" s="420" t="s">
         <v>279</v>
       </c>
     </row>
@@ -45561,11 +45562,12 @@
       <c r="C28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="423"/>
+      <c r="D28" s="422"/>
     </row>
   </sheetData>
   <sheetProtection password="C74C" sheet="1"/>
   <mergeCells count="17">
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:D11"/>
@@ -45582,7 +45584,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -45649,7 +45650,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -45668,7 +45669,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -45731,7 +45732,7 @@
       <c r="A10" s="139"/>
     </row>
     <row r="11" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="429" t="s">
+      <c r="A11" s="439" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="413" t="s">
@@ -45750,7 +45751,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="430"/>
+      <c r="A12" s="440"/>
       <c r="B12" s="49" t="s">
         <v>0</v>
       </c>
@@ -45849,7 +45850,7 @@
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="429" t="s">
+      <c r="A21" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="413" t="s">
@@ -45868,7 +45869,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
+      <c r="A22" s="440"/>
       <c r="B22" s="49" t="s">
         <v>0</v>
       </c>
@@ -45910,26 +45911,26 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1"/>
   <mergeCells count="20">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8:F8" r:id="rId1" display="http://mic.eucast.org/SearchController/search.jsp?action=performSearch&amp;BeginIndex=0&amp;Micdif=dif&amp;NumberIndex=50&amp;Antib=-1&amp;Specium=220"/>
@@ -45996,7 +45997,7 @@
     </row>
     <row r="4" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -46015,7 +46016,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -46126,7 +46127,7 @@
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="429" t="s">
+      <c r="A13" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="413" t="s">
@@ -46145,7 +46146,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="430"/>
+      <c r="A14" s="440"/>
       <c r="B14" s="49" t="s">
         <v>0</v>
       </c>
@@ -46185,7 +46186,7 @@
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="429" t="s">
+      <c r="A18" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="413" t="s">
@@ -46204,7 +46205,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="430"/>
+      <c r="A19" s="440"/>
       <c r="B19" s="49" t="s">
         <v>0</v>
       </c>
@@ -46368,7 +46369,7 @@
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="429" t="s">
+      <c r="A31" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="413" t="s">
@@ -46387,7 +46388,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="430"/>
+      <c r="A32" s="440"/>
       <c r="B32" s="49" t="s">
         <v>0</v>
       </c>
@@ -46429,6 +46430,18 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1"/>
   <mergeCells count="28">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="G27:G28"/>
@@ -46445,18 +46458,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1"/>
@@ -46537,7 +46538,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -46556,7 +46557,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -46776,7 +46777,7 @@
       <c r="F20" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="428" t="s">
+      <c r="G20" s="420" t="s">
         <v>475</v>
       </c>
     </row>
@@ -46799,29 +46800,29 @@
       <c r="F21" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="G21" s="423"/>
+      <c r="G21" s="422"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection password="C74C" sheet="1"/>
   <mergeCells count="17">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="Ciprofloxacin1"/>
@@ -46889,7 +46890,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -46908,7 +46909,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -46964,14 +46965,14 @@
       <c r="G9" s="275"/>
     </row>
     <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="432" t="s">
+      <c r="A10" s="441" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="431" t="s">
+      <c r="B10" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="431"/>
-      <c r="D10" s="431" t="s">
+      <c r="C10" s="438"/>
+      <c r="D10" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="413" t="s">
@@ -46983,14 +46984,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="432"/>
+      <c r="A11" s="441"/>
       <c r="B11" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="431"/>
+      <c r="D11" s="438"/>
       <c r="E11" s="185" t="s">
         <v>225</v>
       </c>
@@ -47058,14 +47059,14 @@
       <c r="F15" s="233"/>
     </row>
     <row r="16" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="432" t="s">
+      <c r="A16" s="441" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="431" t="s">
+      <c r="B16" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431" t="s">
+      <c r="C16" s="438"/>
+      <c r="D16" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E16" s="413" t="s">
@@ -47077,14 +47078,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="432"/>
+      <c r="A17" s="441"/>
       <c r="B17" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="431"/>
+      <c r="D17" s="438"/>
       <c r="E17" s="185" t="s">
         <v>225</v>
       </c>
@@ -47133,7 +47134,7 @@
       <c r="G20" s="247"/>
     </row>
     <row r="21" spans="1:7" s="96" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="429" t="s">
+      <c r="A21" s="439" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="413" t="s">
@@ -47152,7 +47153,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
+      <c r="A22" s="440"/>
       <c r="B22" s="49" t="s">
         <v>0</v>
       </c>
@@ -47208,14 +47209,14 @@
       <c r="G25" s="250"/>
     </row>
     <row r="26" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="425" t="s">
+      <c r="A26" s="423" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="431" t="s">
+      <c r="B26" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="431"/>
-      <c r="D26" s="431" t="s">
+      <c r="C26" s="438"/>
+      <c r="D26" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E26" s="413" t="s">
@@ -47227,14 +47228,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="425"/>
+      <c r="A27" s="423"/>
       <c r="B27" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="431"/>
+      <c r="D27" s="438"/>
       <c r="E27" s="185" t="s">
         <v>225</v>
       </c>
@@ -47279,14 +47280,14 @@
       <c r="F30" s="233"/>
     </row>
     <row r="31" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="425" t="s">
+      <c r="A31" s="423" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="431" t="s">
+      <c r="B31" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="431"/>
-      <c r="D31" s="431" t="s">
+      <c r="C31" s="438"/>
+      <c r="D31" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E31" s="413" t="s">
@@ -47298,14 +47299,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="425"/>
+      <c r="A32" s="423"/>
       <c r="B32" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="431"/>
+      <c r="D32" s="438"/>
       <c r="E32" s="185" t="s">
         <v>225</v>
       </c>
@@ -47338,7 +47339,7 @@
     <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="429" t="s">
+      <c r="A36" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="413" t="s">
@@ -47357,7 +47358,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="430"/>
+      <c r="A37" s="440"/>
       <c r="B37" s="49" t="s">
         <v>0</v>
       </c>
@@ -47419,20 +47420,13 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1"/>
   <mergeCells count="37">
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="A5:A6"/>
@@ -47449,13 +47443,20 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="Ciprofloxacin1"/>
@@ -47548,7 +47549,7 @@
       <c r="D4" s="299"/>
     </row>
     <row r="5" spans="1:4" s="21" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429"/>
+      <c r="A5" s="439"/>
       <c r="B5" s="413" t="s">
         <v>73</v>
       </c>
@@ -47558,7 +47559,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -47577,7 +47578,7 @@
       <c r="C7" s="301" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="433"/>
+      <c r="D7" s="437"/>
     </row>
     <row r="8" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="300" t="s">
@@ -47589,7 +47590,7 @@
       <c r="C8" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="421"/>
+      <c r="D8" s="428"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -47646,12 +47647,12 @@
       <c r="D2" s="279"/>
     </row>
     <row r="3" spans="1:4" s="358" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
+      <c r="A3" s="511" t="s">
         <v>673</v>
       </c>
-      <c r="B3" s="521"/>
-      <c r="C3" s="521"/>
-      <c r="D3" s="521"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
     </row>
     <row r="4" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
@@ -47660,7 +47661,7 @@
       <c r="D4" s="280"/>
     </row>
     <row r="5" spans="1:4" s="21" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -47672,7 +47673,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -47691,7 +47692,7 @@
       <c r="C7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="514" t="s">
+      <c r="D7" s="515" t="s">
         <v>625</v>
       </c>
     </row>
@@ -47705,7 +47706,7 @@
       <c r="C8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="487"/>
+      <c r="D8" s="485"/>
     </row>
     <row r="9" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -47717,7 +47718,7 @@
       <c r="C9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="487"/>
+      <c r="D9" s="485"/>
     </row>
     <row r="10" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
@@ -47729,7 +47730,7 @@
       <c r="C10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="487"/>
+      <c r="D10" s="485"/>
     </row>
     <row r="11" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
@@ -47741,7 +47742,7 @@
       <c r="C11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="487"/>
+      <c r="D11" s="485"/>
     </row>
     <row r="12" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -47753,7 +47754,7 @@
       <c r="C12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="487"/>
+      <c r="D12" s="485"/>
     </row>
     <row r="13" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
@@ -47765,7 +47766,7 @@
       <c r="C13" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="487"/>
+      <c r="D13" s="485"/>
     </row>
     <row r="14" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
@@ -47777,7 +47778,7 @@
       <c r="C14" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="487"/>
+      <c r="D14" s="485"/>
     </row>
     <row r="15" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -47789,13 +47790,13 @@
       <c r="C15" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="487"/>
+      <c r="D15" s="485"/>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="487"/>
+      <c r="D16" s="485"/>
     </row>
     <row r="17" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
@@ -47807,13 +47808,13 @@
       <c r="C17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="487"/>
+      <c r="D17" s="485"/>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="487"/>
+      <c r="D18" s="485"/>
     </row>
     <row r="19" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
@@ -47825,7 +47826,7 @@
       <c r="C19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="487"/>
+      <c r="D19" s="485"/>
     </row>
     <row r="20" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
@@ -47837,7 +47838,7 @@
       <c r="C20" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="487"/>
+      <c r="D20" s="485"/>
     </row>
     <row r="21" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
@@ -47849,7 +47850,7 @@
       <c r="C21" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="487"/>
+      <c r="D21" s="485"/>
     </row>
     <row r="22" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
@@ -47861,13 +47862,13 @@
       <c r="C22" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="487"/>
+      <c r="D22" s="485"/>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="487"/>
+      <c r="D23" s="485"/>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
@@ -47879,7 +47880,7 @@
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="488"/>
+      <c r="D24" s="486"/>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
@@ -47894,7 +47895,7 @@
       <c r="D26" s="280"/>
     </row>
     <row r="27" spans="1:4" s="35" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="413" t="s">
@@ -47906,7 +47907,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="430"/>
+      <c r="A28" s="440"/>
       <c r="B28" s="49" t="s">
         <v>226</v>
       </c>
@@ -47925,7 +47926,7 @@
       <c r="C29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="511" t="s">
+      <c r="D29" s="512" t="s">
         <v>624</v>
       </c>
     </row>
@@ -47939,7 +47940,7 @@
       <c r="C30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="512"/>
+      <c r="D30" s="513"/>
     </row>
     <row r="31" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -47951,7 +47952,7 @@
       <c r="C31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="512"/>
+      <c r="D31" s="513"/>
     </row>
     <row r="32" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
@@ -47963,7 +47964,7 @@
       <c r="C32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="512"/>
+      <c r="D32" s="513"/>
     </row>
     <row r="33" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
@@ -47975,7 +47976,7 @@
       <c r="C33" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="512"/>
+      <c r="D33" s="513"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -47987,7 +47988,7 @@
       <c r="C34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="512"/>
+      <c r="D34" s="513"/>
     </row>
     <row r="35" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -47999,7 +48000,7 @@
       <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="512"/>
+      <c r="D35" s="513"/>
     </row>
     <row r="36" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68" t="s">
@@ -48011,7 +48012,7 @@
       <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="512"/>
+      <c r="D36" s="513"/>
     </row>
     <row r="37" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68" t="s">
@@ -48023,7 +48024,7 @@
       <c r="C37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="512"/>
+      <c r="D37" s="513"/>
     </row>
     <row r="38" spans="1:4" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
@@ -48035,7 +48036,7 @@
       <c r="C38" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="512"/>
+      <c r="D38" s="513"/>
     </row>
     <row r="39" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
@@ -48047,7 +48048,7 @@
       <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="512"/>
+      <c r="D39" s="513"/>
     </row>
     <row r="40" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="68" t="s">
@@ -48059,7 +48060,7 @@
       <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="512"/>
+      <c r="D40" s="513"/>
     </row>
     <row r="41" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68" t="s">
@@ -48071,7 +48072,7 @@
       <c r="C41" s="290">
         <v>4</v>
       </c>
-      <c r="D41" s="512"/>
+      <c r="D41" s="513"/>
     </row>
     <row r="42" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="322" t="s">
@@ -48083,7 +48084,7 @@
       <c r="C42" s="211" t="s">
         <v>626</v>
       </c>
-      <c r="D42" s="512"/>
+      <c r="D42" s="513"/>
     </row>
     <row r="43" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
@@ -48095,7 +48096,7 @@
       <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="512"/>
+      <c r="D43" s="513"/>
     </row>
     <row r="44" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
@@ -48107,7 +48108,7 @@
       <c r="C44" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="512"/>
+      <c r="D44" s="513"/>
     </row>
     <row r="45" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
@@ -48119,7 +48120,7 @@
       <c r="C45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="513"/>
+      <c r="D45" s="514"/>
     </row>
     <row r="46" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="120"/>
@@ -48132,19 +48133,19 @@
       <c r="D47" s="280"/>
     </row>
     <row r="48" spans="1:4" s="35" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="432" t="s">
+      <c r="A48" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="431" t="s">
+      <c r="B48" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="431"/>
+      <c r="C48" s="438"/>
       <c r="D48" s="499" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="432"/>
+      <c r="A49" s="441"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -48163,7 +48164,7 @@
       <c r="C50" s="66">
         <v>2</v>
       </c>
-      <c r="D50" s="428"/>
+      <c r="D50" s="420"/>
     </row>
     <row r="51" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="153" t="s">
@@ -48175,7 +48176,7 @@
       <c r="C51" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="422"/>
+      <c r="D51" s="421"/>
     </row>
     <row r="52" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
@@ -48187,7 +48188,7 @@
       <c r="C52" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="422"/>
+      <c r="D52" s="421"/>
     </row>
     <row r="53" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -48199,7 +48200,7 @@
       <c r="C53" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="423"/>
+      <c r="D53" s="422"/>
     </row>
     <row r="54" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24"/>
@@ -48212,7 +48213,7 @@
       <c r="D55" s="280"/>
     </row>
     <row r="56" spans="1:4" s="35" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -48224,7 +48225,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -48258,19 +48259,19 @@
       <c r="D60" s="280"/>
     </row>
     <row r="61" spans="1:4" s="21" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="432" t="s">
+      <c r="A61" s="441" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="431" t="s">
+      <c r="B61" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="431"/>
+      <c r="C61" s="438"/>
       <c r="D61" s="499" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="432"/>
+      <c r="A62" s="441"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -48289,7 +48290,7 @@
       <c r="C63" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="511"/>
+      <c r="D63" s="512"/>
     </row>
     <row r="64" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="63" t="s">
@@ -48301,7 +48302,7 @@
       <c r="C64" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="512"/>
+      <c r="D64" s="513"/>
     </row>
     <row r="65" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="63" t="s">
@@ -48313,7 +48314,7 @@
       <c r="C65" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="512"/>
+      <c r="D65" s="513"/>
     </row>
     <row r="66" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
@@ -48325,7 +48326,7 @@
       <c r="C66" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="512"/>
+      <c r="D66" s="513"/>
     </row>
     <row r="67" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -48337,7 +48338,7 @@
       <c r="C67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="512"/>
+      <c r="D67" s="513"/>
     </row>
     <row r="68" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
@@ -48349,7 +48350,7 @@
       <c r="C68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="513"/>
+      <c r="D68" s="514"/>
     </row>
     <row r="69" spans="1:4" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
@@ -48364,7 +48365,7 @@
       <c r="D70" s="280"/>
     </row>
     <row r="71" spans="1:4" s="126" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>131</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -48376,7 +48377,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="110" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>226</v>
       </c>
@@ -48395,7 +48396,7 @@
       <c r="C73" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="518"/>
+      <c r="D73" s="519"/>
     </row>
     <row r="74" spans="1:4" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="63" t="s">
@@ -48407,7 +48408,7 @@
       <c r="C74" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="519"/>
+      <c r="D74" s="520"/>
     </row>
     <row r="75" spans="1:4" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="63" t="s">
@@ -48419,7 +48420,7 @@
       <c r="C75" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="519"/>
+      <c r="D75" s="520"/>
     </row>
     <row r="76" spans="1:4" s="110" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="63" t="s">
@@ -48431,7 +48432,7 @@
       <c r="C76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="520"/>
+      <c r="D76" s="521"/>
     </row>
     <row r="77" spans="1:4" s="110" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
@@ -48446,7 +48447,7 @@
       <c r="D78" s="280"/>
     </row>
     <row r="79" spans="1:4" s="110" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -48458,7 +48459,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>226</v>
       </c>
@@ -48491,7 +48492,7 @@
       <c r="C82" s="313" t="s">
         <v>779</v>
       </c>
-      <c r="D82" s="422"/>
+      <c r="D82" s="421"/>
     </row>
     <row r="83" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -48503,7 +48504,7 @@
       <c r="C83" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="422"/>
+      <c r="D83" s="421"/>
     </row>
     <row r="84" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -48515,7 +48516,7 @@
       <c r="C84" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="422"/>
+      <c r="D84" s="421"/>
     </row>
     <row r="85" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -48527,7 +48528,7 @@
       <c r="C85" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="423"/>
+      <c r="D85" s="422"/>
     </row>
     <row r="86" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24"/>
@@ -48573,7 +48574,7 @@
       <c r="C90" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="515"/>
+      <c r="D90" s="516"/>
     </row>
     <row r="91" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
@@ -48585,7 +48586,7 @@
       <c r="C91" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="516"/>
+      <c r="D91" s="517"/>
     </row>
     <row r="92" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
@@ -48597,7 +48598,7 @@
       <c r="C92" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="516"/>
+      <c r="D92" s="517"/>
     </row>
     <row r="93" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
@@ -48609,7 +48610,7 @@
       <c r="C93" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="516"/>
+      <c r="D93" s="517"/>
     </row>
     <row r="94" spans="1:4" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
@@ -48621,13 +48622,13 @@
       <c r="C94" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="516"/>
+      <c r="D94" s="517"/>
     </row>
     <row r="95" spans="1:4" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
       <c r="B95" s="46"/>
       <c r="C95" s="46"/>
-      <c r="D95" s="516"/>
+      <c r="D95" s="517"/>
     </row>
     <row r="96" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
@@ -48639,7 +48640,7 @@
       <c r="C96" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D96" s="516"/>
+      <c r="D96" s="517"/>
     </row>
     <row r="97" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
@@ -48651,7 +48652,7 @@
       <c r="C97" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D97" s="517"/>
+      <c r="D97" s="518"/>
     </row>
     <row r="98" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
@@ -48665,7 +48666,7 @@
       <c r="D99" s="280"/>
     </row>
     <row r="100" spans="1:4" s="35" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -48677,7 +48678,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="430"/>
+      <c r="A101" s="440"/>
       <c r="B101" s="49" t="s">
         <v>226</v>
       </c>
@@ -48710,7 +48711,7 @@
       <c r="C103" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="422"/>
+      <c r="D103" s="421"/>
     </row>
     <row r="104" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="63" t="s">
@@ -48722,7 +48723,7 @@
       <c r="C104" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="422"/>
+      <c r="D104" s="421"/>
     </row>
     <row r="105" spans="1:4" s="35" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A105" s="63" t="s">
@@ -48734,7 +48735,7 @@
       <c r="C105" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="423"/>
+      <c r="D105" s="422"/>
     </row>
     <row r="106" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="64"/>
@@ -48749,7 +48750,7 @@
       <c r="D107" s="250"/>
     </row>
     <row r="108" spans="1:4" s="35" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -48761,7 +48762,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>226</v>
       </c>
@@ -48780,7 +48781,7 @@
       <c r="C110" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="515"/>
+      <c r="D110" s="516"/>
     </row>
     <row r="111" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="310" t="s">
@@ -48792,7 +48793,7 @@
       <c r="C111" s="166" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="517"/>
+      <c r="D111" s="518"/>
     </row>
     <row r="112" spans="1:4" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="64"/>
@@ -48838,7 +48839,7 @@
       <c r="C116" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="515"/>
+      <c r="D116" s="516"/>
     </row>
     <row r="117" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
@@ -48850,7 +48851,7 @@
       <c r="C117" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="516"/>
+      <c r="D117" s="517"/>
     </row>
     <row r="118" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="63" t="s">
@@ -48862,7 +48863,7 @@
       <c r="C118" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D118" s="516"/>
+      <c r="D118" s="517"/>
     </row>
     <row r="119" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
@@ -48874,7 +48875,7 @@
       <c r="C119" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D119" s="516"/>
+      <c r="D119" s="517"/>
     </row>
     <row r="120" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
@@ -48886,7 +48887,7 @@
       <c r="C120" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D120" s="516"/>
+      <c r="D120" s="517"/>
     </row>
     <row r="121" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -48898,7 +48899,7 @@
       <c r="C121" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D121" s="516"/>
+      <c r="D121" s="517"/>
     </row>
     <row r="122" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
@@ -48910,7 +48911,7 @@
       <c r="C122" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D122" s="516"/>
+      <c r="D122" s="517"/>
     </row>
     <row r="123" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
@@ -48922,7 +48923,7 @@
       <c r="C123" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D123" s="516"/>
+      <c r="D123" s="517"/>
     </row>
     <row r="124" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
@@ -48934,7 +48935,7 @@
       <c r="C124" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="516"/>
+      <c r="D124" s="517"/>
     </row>
     <row r="125" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
@@ -48946,7 +48947,7 @@
       <c r="C125" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D125" s="516"/>
+      <c r="D125" s="517"/>
     </row>
     <row r="126" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="63" t="s">
@@ -48958,7 +48959,7 @@
       <c r="C126" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D126" s="516"/>
+      <c r="D126" s="517"/>
     </row>
     <row r="127" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
@@ -48970,7 +48971,7 @@
       <c r="C127" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="516"/>
+      <c r="D127" s="517"/>
     </row>
     <row r="128" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
@@ -48982,30 +48983,22 @@
       <c r="C128" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D128" s="517"/>
+      <c r="D128" s="518"/>
     </row>
     <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D29:D45"/>
+    <mergeCell ref="D7:D24"/>
+    <mergeCell ref="D116:D128"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D108:D109"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="B114:C114"/>
     <mergeCell ref="D114:D115"/>
@@ -49022,16 +49015,24 @@
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="D29:D45"/>
-    <mergeCell ref="D7:D24"/>
-    <mergeCell ref="D116:D128"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7:C7" r:id="rId1" display="0.25"/>
@@ -49171,7 +49172,9 @@
   <sheetPr codeName="Blad22"/>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -49195,11 +49198,11 @@
       <c r="C2" s="376"/>
     </row>
     <row r="3" spans="1:3" s="358" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
+      <c r="A3" s="511" t="s">
         <v>620</v>
       </c>
-      <c r="B3" s="521"/>
-      <c r="C3" s="521"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
     </row>
     <row r="4" spans="1:3" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="377"/>
@@ -50856,7 +50859,9 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50970,7 +50975,7 @@
       <c r="F7" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="428" t="s">
+      <c r="G7" s="420" t="s">
         <v>541</v>
       </c>
     </row>
@@ -50993,7 +50998,7 @@
       <c r="F8" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="422"/>
+      <c r="G8" s="421"/>
       <c r="H8"/>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51015,7 +51020,7 @@
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="422"/>
+      <c r="G9" s="421"/>
     </row>
     <row r="10" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
@@ -51036,7 +51041,7 @@
       <c r="F10" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="422"/>
+      <c r="G10" s="421"/>
       <c r="H10"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51058,7 +51063,7 @@
       <c r="F11" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="G11" s="422"/>
+      <c r="G11" s="421"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="68" t="s">
@@ -51079,7 +51084,7 @@
       <c r="F12" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="422"/>
+      <c r="G12" s="421"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68" t="s">
@@ -51100,7 +51105,7 @@
       <c r="F13" s="66">
         <v>17</v>
       </c>
-      <c r="G13" s="422"/>
+      <c r="G13" s="421"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
@@ -51121,7 +51126,7 @@
       <c r="F14" s="66">
         <v>17</v>
       </c>
-      <c r="G14" s="422"/>
+      <c r="G14" s="421"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
@@ -51142,7 +51147,7 @@
       <c r="F15" s="66">
         <v>23</v>
       </c>
-      <c r="G15" s="422"/>
+      <c r="G15" s="421"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
@@ -51163,7 +51168,7 @@
       <c r="F16" s="66">
         <v>23</v>
       </c>
-      <c r="G16" s="422"/>
+      <c r="G16" s="421"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
@@ -51172,7 +51177,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="422"/>
+      <c r="G17" s="421"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
@@ -51191,7 +51196,7 @@
       <c r="F18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="422"/>
+      <c r="G18" s="421"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
@@ -51200,7 +51205,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="422"/>
+      <c r="G19" s="421"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="68" t="s">
@@ -51219,7 +51224,7 @@
       <c r="F20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="422"/>
+      <c r="G20" s="421"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68" t="s">
@@ -51238,7 +51243,7 @@
       <c r="F21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="422"/>
+      <c r="G21" s="421"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="68" t="s">
@@ -51257,7 +51262,7 @@
       <c r="F22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="422"/>
+      <c r="G22" s="421"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68" t="s">
@@ -51276,7 +51281,7 @@
       <c r="F23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="422"/>
+      <c r="G23" s="421"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
@@ -51285,7 +51290,7 @@
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="422"/>
+      <c r="G24" s="421"/>
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="346" t="s">
@@ -51306,7 +51311,7 @@
       <c r="F25" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="G25" s="423"/>
+      <c r="G25" s="422"/>
       <c r="H25"/>
     </row>
     <row r="26" spans="1:8" s="92" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51384,7 +51389,7 @@
       <c r="F30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="428" t="s">
+      <c r="G30" s="420" t="s">
         <v>628</v>
       </c>
     </row>
@@ -51407,7 +51412,7 @@
       <c r="F31" s="67">
         <v>12</v>
       </c>
-      <c r="G31" s="422"/>
+      <c r="G31" s="421"/>
       <c r="H31"/>
     </row>
     <row r="32" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51429,7 +51434,7 @@
       <c r="F32" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="422"/>
+      <c r="G32" s="421"/>
       <c r="H32"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51449,7 +51454,7 @@
       <c r="F33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="422"/>
+      <c r="G33" s="421"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -51470,7 +51475,7 @@
       <c r="F34" s="66">
         <v>21</v>
       </c>
-      <c r="G34" s="422"/>
+      <c r="G34" s="421"/>
     </row>
     <row r="35" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
@@ -51491,7 +51496,7 @@
       <c r="F35" s="66">
         <v>17</v>
       </c>
-      <c r="G35" s="422"/>
+      <c r="G35" s="421"/>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51513,7 +51518,7 @@
       <c r="F36" s="66">
         <v>17</v>
       </c>
-      <c r="G36" s="422"/>
+      <c r="G36" s="421"/>
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68" t="s">
@@ -51534,7 +51539,7 @@
       <c r="F37" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="422"/>
+      <c r="G37" s="421"/>
     </row>
     <row r="38" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="68" t="s">
@@ -51555,7 +51560,7 @@
       <c r="F38" s="66">
         <v>21</v>
       </c>
-      <c r="G38" s="422"/>
+      <c r="G38" s="421"/>
       <c r="H38"/>
     </row>
     <row r="39" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51577,7 +51582,7 @@
       <c r="F39" s="66">
         <v>23</v>
       </c>
-      <c r="G39" s="422"/>
+      <c r="G39" s="421"/>
       <c r="H39"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51599,7 +51604,7 @@
       <c r="F40" s="66">
         <v>19</v>
       </c>
-      <c r="G40" s="422"/>
+      <c r="G40" s="421"/>
     </row>
     <row r="41" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="68" t="s">
@@ -51620,7 +51625,7 @@
       <c r="F41" s="66">
         <v>23</v>
       </c>
-      <c r="G41" s="422"/>
+      <c r="G41" s="421"/>
       <c r="H41"/>
     </row>
     <row r="42" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51642,7 +51647,7 @@
       <c r="F42" s="324">
         <v>23</v>
       </c>
-      <c r="G42" s="422"/>
+      <c r="G42" s="421"/>
       <c r="H42"/>
     </row>
     <row r="43" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51664,7 +51669,7 @@
       <c r="F43" s="324">
         <v>23</v>
       </c>
-      <c r="G43" s="422"/>
+      <c r="G43" s="421"/>
       <c r="H43"/>
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51686,7 +51691,7 @@
       <c r="F44" s="66">
         <v>20</v>
       </c>
-      <c r="G44" s="422"/>
+      <c r="G44" s="421"/>
     </row>
     <row r="45" spans="1:8" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="346" t="s">
@@ -51707,7 +51712,7 @@
       <c r="F45" s="66">
         <v>18</v>
       </c>
-      <c r="G45" s="422"/>
+      <c r="G45" s="421"/>
       <c r="H45"/>
     </row>
     <row r="46" spans="1:8" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51729,7 +51734,7 @@
       <c r="F46" s="66">
         <v>18</v>
       </c>
-      <c r="G46" s="423"/>
+      <c r="G46" s="422"/>
       <c r="H46"/>
     </row>
     <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51744,7 +51749,7 @@
       <c r="G48" s="252"/>
     </row>
     <row r="49" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="425" t="s">
+      <c r="A49" s="423" t="s">
         <v>227</v>
       </c>
       <c r="B49" s="413" t="s">
@@ -51764,7 +51769,7 @@
       <c r="H49"/>
     </row>
     <row r="50" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="425"/>
+      <c r="A50" s="423"/>
       <c r="B50" s="49" t="s">
         <v>0</v>
       </c>
@@ -51810,7 +51815,7 @@
       <c r="F52" s="66">
         <v>21</v>
       </c>
-      <c r="G52" s="428" t="s">
+      <c r="G52" s="420" t="s">
         <v>772</v>
       </c>
       <c r="H52"/>
@@ -51834,7 +51839,7 @@
       <c r="F53" s="66">
         <v>22</v>
       </c>
-      <c r="G53" s="422"/>
+      <c r="G53" s="421"/>
       <c r="H53"/>
     </row>
     <row r="54" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -51856,7 +51861,7 @@
       <c r="F54" s="66">
         <v>16</v>
       </c>
-      <c r="G54" s="422"/>
+      <c r="G54" s="421"/>
     </row>
     <row r="55" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="153" t="s">
@@ -51877,7 +51882,7 @@
       <c r="F55" s="66">
         <v>16</v>
       </c>
-      <c r="G55" s="423"/>
+      <c r="G55" s="422"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G56" s="252"/>
@@ -51886,7 +51891,7 @@
       <c r="G57" s="252"/>
     </row>
     <row r="58" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="425" t="s">
+      <c r="A58" s="423" t="s">
         <v>47</v>
       </c>
       <c r="B58" s="413" t="s">
@@ -51906,7 +51911,7 @@
       <c r="H58"/>
     </row>
     <row r="59" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="425"/>
+      <c r="A59" s="423"/>
       <c r="B59" s="49" t="s">
         <v>0</v>
       </c>
@@ -51954,7 +51959,7 @@
       <c r="G62" s="252"/>
     </row>
     <row r="63" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="425" t="s">
+      <c r="A63" s="423" t="s">
         <v>122</v>
       </c>
       <c r="B63" s="413" t="s">
@@ -51974,7 +51979,7 @@
       <c r="H63"/>
     </row>
     <row r="64" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="425"/>
+      <c r="A64" s="423"/>
       <c r="B64" s="49" t="s">
         <v>0</v>
       </c>
@@ -52166,7 +52171,7 @@
       <c r="G74" s="252"/>
     </row>
     <row r="75" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="425" t="s">
+      <c r="A75" s="423" t="s">
         <v>113</v>
       </c>
       <c r="B75" s="413" t="s">
@@ -52186,7 +52191,7 @@
       <c r="H75"/>
     </row>
     <row r="76" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="425"/>
+      <c r="A76" s="423"/>
       <c r="B76" s="49" t="s">
         <v>0</v>
       </c>
@@ -52232,7 +52237,7 @@
       <c r="F78" s="66">
         <v>15</v>
       </c>
-      <c r="G78" s="422" t="s">
+      <c r="G78" s="421" t="s">
         <v>462</v>
       </c>
     </row>
@@ -52255,7 +52260,7 @@
       <c r="F79" s="66">
         <v>14</v>
       </c>
-      <c r="G79" s="422"/>
+      <c r="G79" s="421"/>
     </row>
     <row r="80" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="63" t="s">
@@ -52276,7 +52281,7 @@
       <c r="F80" s="66">
         <v>12</v>
       </c>
-      <c r="G80" s="422"/>
+      <c r="G80" s="421"/>
     </row>
     <row r="81" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="63" t="s">
@@ -52297,7 +52302,7 @@
       <c r="F81" s="66">
         <v>14</v>
       </c>
-      <c r="G81" s="423"/>
+      <c r="G81" s="422"/>
     </row>
     <row r="82" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="40"/>
@@ -52311,7 +52316,7 @@
       <c r="G83" s="252"/>
     </row>
     <row r="84" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="424" t="s">
+      <c r="A84" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B84" s="413" t="s">
@@ -52331,7 +52336,7 @@
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="424"/>
+      <c r="A85" s="426"/>
       <c r="B85" s="49" t="s">
         <v>0</v>
       </c>
@@ -52405,7 +52410,7 @@
       <c r="F88" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="420"/>
+      <c r="G88" s="427"/>
     </row>
     <row r="89" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="154" t="s">
@@ -52424,7 +52429,7 @@
       <c r="F89" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G89" s="420"/>
+      <c r="G89" s="427"/>
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -52444,7 +52449,7 @@
       <c r="F90" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G90" s="421"/>
+      <c r="G90" s="428"/>
     </row>
     <row r="91" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="40"/>
@@ -52795,7 +52800,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="426" t="s">
+      <c r="A113" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B113" s="413" t="s">
@@ -52815,7 +52820,7 @@
       <c r="H113"/>
     </row>
     <row r="114" spans="1:8" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="427"/>
+      <c r="A114" s="425"/>
       <c r="B114" s="49" t="s">
         <v>0</v>
       </c>
@@ -53346,37 +53351,26 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G46"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G7:G25"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G65:G72"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="G121:G133"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G95:G102"/>
+    <mergeCell ref="G107:G110"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G113:G114"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:C93"/>
@@ -53391,26 +53385,37 @@
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="D113:D114"/>
     <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G113:G114"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="G121:G133"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G95:G102"/>
-    <mergeCell ref="G107:G110"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="G88:G90"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G65:G72"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G46"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G7:G25"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -53596,7 +53601,9 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -53652,7 +53659,7 @@
       <c r="G4" s="257"/>
     </row>
     <row r="5" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -53671,7 +53678,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="88" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -54030,7 +54037,7 @@
       <c r="G26" s="252"/>
     </row>
     <row r="27" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="439" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="413" t="s">
@@ -54049,7 +54056,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="430"/>
+      <c r="A28" s="440"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
@@ -54082,7 +54089,7 @@
       <c r="F29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="434" t="s">
+      <c r="G29" s="429" t="s">
         <v>623</v>
       </c>
     </row>
@@ -54103,7 +54110,7 @@
       <c r="F30" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="435"/>
+      <c r="G30" s="430"/>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
@@ -54122,7 +54129,7 @@
       <c r="F31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="435"/>
+      <c r="G31" s="430"/>
     </row>
     <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
@@ -54141,7 +54148,7 @@
       <c r="F32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G32" s="435"/>
+      <c r="G32" s="430"/>
     </row>
     <row r="33" spans="1:9" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
@@ -54162,7 +54169,7 @@
       <c r="F33" s="66">
         <v>19</v>
       </c>
-      <c r="G33" s="435"/>
+      <c r="G33" s="430"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
@@ -54181,7 +54188,7 @@
       <c r="F34" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="435"/>
+      <c r="G34" s="430"/>
     </row>
     <row r="35" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -54200,7 +54207,7 @@
       <c r="F35" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="435"/>
+      <c r="G35" s="430"/>
     </row>
     <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="68" t="s">
@@ -54219,7 +54226,7 @@
       <c r="F36" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="435"/>
+      <c r="G36" s="430"/>
     </row>
     <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="68" t="s">
@@ -54238,7 +54245,7 @@
       <c r="F37" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G37" s="435"/>
+      <c r="G37" s="430"/>
     </row>
     <row r="38" spans="1:9" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
@@ -54257,7 +54264,7 @@
       <c r="F38" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="435"/>
+      <c r="G38" s="430"/>
       <c r="H38"/>
       <c r="I38"/>
     </row>
@@ -54280,7 +54287,7 @@
       <c r="F39" s="353">
         <v>17</v>
       </c>
-      <c r="G39" s="435"/>
+      <c r="G39" s="430"/>
       <c r="H39"/>
       <c r="I39"/>
     </row>
@@ -54301,7 +54308,7 @@
       <c r="F40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="435"/>
+      <c r="G40" s="430"/>
       <c r="H40"/>
       <c r="I40"/>
     </row>
@@ -54322,7 +54329,7 @@
       <c r="F41" s="187" t="s">
         <v>114</v>
       </c>
-      <c r="G41" s="435"/>
+      <c r="G41" s="430"/>
       <c r="H41"/>
       <c r="I41"/>
     </row>
@@ -54345,7 +54352,7 @@
       <c r="F42" s="326" t="s">
         <v>230</v>
       </c>
-      <c r="G42" s="435"/>
+      <c r="G42" s="430"/>
       <c r="H42"/>
       <c r="I42"/>
     </row>
@@ -54366,7 +54373,7 @@
       <c r="F43" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="435"/>
+      <c r="G43" s="430"/>
       <c r="H43"/>
       <c r="I43"/>
     </row>
@@ -54387,7 +54394,7 @@
       <c r="F44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="435"/>
+      <c r="G44" s="430"/>
       <c r="H44"/>
       <c r="I44"/>
     </row>
@@ -54408,7 +54415,7 @@
       <c r="F45" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="436"/>
+      <c r="G45" s="431"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
@@ -54423,14 +54430,14 @@
       <c r="G47" s="252"/>
     </row>
     <row r="48" spans="1:9" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="432" t="s">
+      <c r="A48" s="441" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="431" t="s">
+      <c r="B48" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="431"/>
-      <c r="D48" s="431" t="s">
+      <c r="C48" s="438"/>
+      <c r="D48" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="413" t="s">
@@ -54442,14 +54449,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="432"/>
+      <c r="A49" s="441"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="431"/>
+      <c r="D49" s="438"/>
       <c r="E49" s="49" t="s">
         <v>189</v>
       </c>
@@ -54477,7 +54484,7 @@
       <c r="F50" s="66">
         <v>22</v>
       </c>
-      <c r="G50" s="437" t="s">
+      <c r="G50" s="432" t="s">
         <v>657</v>
       </c>
     </row>
@@ -54498,7 +54505,7 @@
       <c r="F51" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="438"/>
+      <c r="G51" s="433"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
@@ -54519,7 +54526,7 @@
       <c r="F52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="438"/>
+      <c r="G52" s="433"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -54540,7 +54547,7 @@
       <c r="F53" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G53" s="439"/>
+      <c r="G53" s="434"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G54" s="252"/>
@@ -54549,7 +54556,7 @@
       <c r="G55" s="252"/>
     </row>
     <row r="56" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="429" t="s">
+      <c r="A56" s="439" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -54568,7 +54575,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="430"/>
+      <c r="A57" s="440"/>
       <c r="B57" s="49" t="s">
         <v>0</v>
       </c>
@@ -54612,7 +54619,7 @@
       <c r="G60" s="252"/>
     </row>
     <row r="61" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="432" t="s">
+      <c r="A61" s="441" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="413" t="s">
@@ -54631,7 +54638,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="432"/>
+      <c r="A62" s="441"/>
       <c r="B62" s="49" t="s">
         <v>0</v>
       </c>
@@ -54666,7 +54673,7 @@
       <c r="F63" s="66">
         <v>22</v>
       </c>
-      <c r="G63" s="428"/>
+      <c r="G63" s="420"/>
     </row>
     <row r="64" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="63" t="s">
@@ -54687,7 +54694,7 @@
       <c r="F64" s="66">
         <v>17</v>
       </c>
-      <c r="G64" s="422"/>
+      <c r="G64" s="421"/>
     </row>
     <row r="65" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="63" t="s">
@@ -54706,7 +54713,7 @@
       <c r="F65" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G65" s="422"/>
+      <c r="G65" s="421"/>
     </row>
     <row r="66" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
@@ -54725,7 +54732,7 @@
       <c r="F66" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="422"/>
+      <c r="G66" s="421"/>
     </row>
     <row r="67" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="63" t="s">
@@ -54744,7 +54751,7 @@
       <c r="F67" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G67" s="422"/>
+      <c r="G67" s="421"/>
     </row>
     <row r="68" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="63" t="s">
@@ -54763,7 +54770,7 @@
       <c r="F68" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G68" s="423"/>
+      <c r="G68" s="422"/>
     </row>
     <row r="69" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="50"/>
@@ -54773,7 +54780,7 @@
       <c r="G70" s="252"/>
     </row>
     <row r="71" spans="1:7" s="58" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="429" t="s">
+      <c r="A71" s="439" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -54792,7 +54799,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="430"/>
+      <c r="A72" s="440"/>
       <c r="B72" s="49" t="s">
         <v>0</v>
       </c>
@@ -54906,7 +54913,7 @@
       <c r="G78" s="252"/>
     </row>
     <row r="79" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -54925,7 +54932,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>0</v>
       </c>
@@ -54958,7 +54965,7 @@
       <c r="F81" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="433"/>
+      <c r="G81" s="437"/>
       <c r="H81" s="127"/>
       <c r="I81" s="127"/>
     </row>
@@ -54979,7 +54986,7 @@
       <c r="F82" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="420"/>
+      <c r="G82" s="427"/>
       <c r="H82" s="127"/>
       <c r="I82" s="127"/>
     </row>
@@ -55000,7 +55007,7 @@
       <c r="F83" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="420"/>
+      <c r="G83" s="427"/>
     </row>
     <row r="84" spans="1:9" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -55019,7 +55026,7 @@
       <c r="F84" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="420"/>
+      <c r="G84" s="427"/>
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -55038,7 +55045,7 @@
       <c r="F85" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G85" s="421"/>
+      <c r="G85" s="428"/>
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="34"/>
@@ -55242,7 +55249,7 @@
       <c r="G99" s="252"/>
     </row>
     <row r="100" spans="1:8" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="429" t="s">
+      <c r="A100" s="439" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -55261,7 +55268,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="430"/>
+      <c r="A101" s="440"/>
       <c r="B101" s="49" t="s">
         <v>0</v>
       </c>
@@ -55374,7 +55381,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -55394,7 +55401,7 @@
       <c r="H108" s="56"/>
     </row>
     <row r="109" spans="1:8" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -55428,7 +55435,7 @@
       <c r="F110" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G110" s="440"/>
+      <c r="G110" s="435"/>
     </row>
     <row r="111" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="310" t="s">
@@ -55447,7 +55454,7 @@
       <c r="F111" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="G111" s="441"/>
+      <c r="G111" s="436"/>
     </row>
     <row r="112" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="64"/>
@@ -55949,41 +55956,21 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="G116:G128"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G7:G24"/>
-    <mergeCell ref="G29:G45"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G90:G97"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:D109"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:D28"/>
@@ -55999,21 +55986,41 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G90:G97"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="G81:G85"/>
+    <mergeCell ref="G116:G128"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G7:G24"/>
+    <mergeCell ref="G29:G45"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G110:G111"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -56118,7 +56125,9 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56172,7 +56181,7 @@
       <c r="D4" s="87"/>
     </row>
     <row r="5" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -56192,7 +56201,7 @@
       <c r="H5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -56291,7 +56300,9 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56345,7 +56356,7 @@
       <c r="G4" s="257"/>
     </row>
     <row r="5" spans="1:7" s="88" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="429" t="s">
+      <c r="A5" s="439" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="413" t="s">
@@ -56364,7 +56375,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="430"/>
+      <c r="A6" s="440"/>
       <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
@@ -56713,14 +56724,14 @@
       <c r="G26" s="248"/>
     </row>
     <row r="27" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="432" t="s">
+      <c r="A27" s="441" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="431" t="s">
+      <c r="B27" s="438" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="431"/>
-      <c r="D27" s="431" t="s">
+      <c r="C27" s="438"/>
+      <c r="D27" s="438" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="413" t="s">
@@ -56732,14 +56743,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="432"/>
+      <c r="A28" s="441"/>
       <c r="B28" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="431"/>
+      <c r="D28" s="438"/>
       <c r="E28" s="49" t="s">
         <v>234</v>
       </c>
@@ -57085,7 +57096,7 @@
       <c r="G47" s="252"/>
     </row>
     <row r="48" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="432" t="s">
+      <c r="A48" s="441" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="413" t="s">
@@ -57104,7 +57115,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="432"/>
+      <c r="A49" s="441"/>
       <c r="B49" s="49" t="s">
         <v>0</v>
       </c>
@@ -57139,7 +57150,7 @@
       <c r="F50" s="66">
         <v>20</v>
       </c>
-      <c r="G50" s="445" t="s">
+      <c r="G50" s="448" t="s">
         <v>659</v>
       </c>
     </row>
@@ -57160,7 +57171,7 @@
       <c r="F51" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="438"/>
+      <c r="G51" s="433"/>
     </row>
     <row r="52" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="153" t="s">
@@ -57181,7 +57192,7 @@
       <c r="F52" s="66">
         <v>17</v>
       </c>
-      <c r="G52" s="438"/>
+      <c r="G52" s="433"/>
     </row>
     <row r="53" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="153" t="s">
@@ -57202,7 +57213,7 @@
       <c r="F53" s="66">
         <v>15</v>
       </c>
-      <c r="G53" s="439"/>
+      <c r="G53" s="434"/>
     </row>
     <row r="54" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G54" s="252"/>
@@ -57211,7 +57222,7 @@
       <c r="G55" s="252"/>
     </row>
     <row r="56" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="432" t="s">
+      <c r="A56" s="441" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="413" t="s">
@@ -57230,7 +57241,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="432"/>
+      <c r="A57" s="441"/>
       <c r="B57" s="49" t="s">
         <v>226</v>
       </c>
@@ -57272,7 +57283,7 @@
       <c r="G60" s="252"/>
     </row>
     <row r="61" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="432" t="s">
+      <c r="A61" s="441" t="s">
         <v>122</v>
       </c>
       <c r="B61" s="413" t="s">
@@ -57291,7 +57302,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="432"/>
+      <c r="A62" s="441"/>
       <c r="B62" s="49" t="s">
         <v>226</v>
       </c>
@@ -57434,7 +57445,7 @@
       <c r="G70" s="252"/>
     </row>
     <row r="71" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="432" t="s">
+      <c r="A71" s="441" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="413" t="s">
@@ -57453,7 +57464,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" s="58" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="432"/>
+      <c r="A72" s="441"/>
       <c r="B72" s="49" t="s">
         <v>226</v>
       </c>
@@ -57569,7 +57580,7 @@
       <c r="G78" s="252"/>
     </row>
     <row r="79" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="424" t="s">
+      <c r="A79" s="426" t="s">
         <v>587</v>
       </c>
       <c r="B79" s="413" t="s">
@@ -57588,7 +57599,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="424"/>
+      <c r="A80" s="426"/>
       <c r="B80" s="49" t="s">
         <v>226</v>
       </c>
@@ -57621,7 +57632,7 @@
       <c r="F81" s="312" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="446"/>
+      <c r="G81" s="445"/>
     </row>
     <row r="82" spans="1:7" s="305" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="306" t="s">
@@ -57640,7 +57651,7 @@
       <c r="F82" s="313" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="447"/>
+      <c r="G82" s="446"/>
     </row>
     <row r="83" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
@@ -57659,7 +57670,7 @@
       <c r="F83" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G83" s="447"/>
+      <c r="G83" s="446"/>
     </row>
     <row r="84" spans="1:7" s="126" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="154" t="s">
@@ -57678,7 +57689,7 @@
       <c r="F84" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="447"/>
+      <c r="G84" s="446"/>
     </row>
     <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -57697,7 +57708,7 @@
       <c r="F85" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G85" s="448"/>
+      <c r="G85" s="447"/>
     </row>
     <row r="86" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -57713,7 +57724,7 @@
       <c r="G87" s="252"/>
     </row>
     <row r="88" spans="1:7" s="122" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="425" t="s">
+      <c r="A88" s="423" t="s">
         <v>66</v>
       </c>
       <c r="B88" s="413" t="s">
@@ -57732,7 +57743,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="425"/>
+      <c r="A89" s="423"/>
       <c r="B89" s="49" t="s">
         <v>226</v>
       </c>
@@ -57904,7 +57915,7 @@
       <c r="G99" s="252"/>
     </row>
     <row r="100" spans="1:7" s="88" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="432" t="s">
+      <c r="A100" s="441" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="413" t="s">
@@ -57923,7 +57934,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" s="58" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="432"/>
+      <c r="A101" s="441"/>
       <c r="B101" s="49" t="s">
         <v>0</v>
       </c>
@@ -58031,7 +58042,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="426" t="s">
+      <c r="A108" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B108" s="413" t="s">
@@ -58050,7 +58061,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="427"/>
+      <c r="A109" s="425"/>
       <c r="B109" s="49" t="s">
         <v>0</v>
       </c>
@@ -58624,24 +58635,34 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="G7:G24"/>
-    <mergeCell ref="G29:G45"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="G116:G128"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="G56:G57"/>
@@ -58658,37 +58679,27 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="A88:A89"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D79:D80"/>
     <mergeCell ref="B100:C100"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="G90:G97"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G116:G128"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G7:G24"/>
+    <mergeCell ref="G29:G45"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="G81:G85"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -60282,7 +60293,7 @@
       <c r="G86" s="247"/>
     </row>
     <row r="87" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="424" t="s">
+      <c r="A87" s="426" t="s">
         <v>603</v>
       </c>
       <c r="B87" s="413" t="s">
@@ -60302,7 +60313,7 @@
       <c r="H87" s="56"/>
     </row>
     <row r="88" spans="1:8" s="125" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="424"/>
+      <c r="A88" s="426"/>
       <c r="B88" s="49" t="s">
         <v>0</v>
       </c>
@@ -60806,7 +60817,7 @@
       <c r="G117" s="247"/>
     </row>
     <row r="118" spans="1:8" s="123" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="426" t="s">
+      <c r="A118" s="424" t="s">
         <v>528</v>
       </c>
       <c r="B118" s="413" t="s">
@@ -60826,7 +60837,7 @@
       <c r="H118"/>
     </row>
     <row r="119" spans="1:8" s="124" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="427"/>
+      <c r="A119" s="425"/>
       <c r="B119" s="49" t="s">
         <v>0</v>
       </c>
@@ -61423,56 +61434,6 @@
   </sheetData>
   <sheetProtection password="C74C" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="G89:G95"/>
-    <mergeCell ref="G100:G107"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G126:G138"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="G77:G84"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="E5:F5"/>
@@ -61488,6 +61449,56 @@
     <mergeCell ref="G7:G26"/>
     <mergeCell ref="G31:G49"/>
     <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G126:G138"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="G77:G84"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="G89:G95"/>
+    <mergeCell ref="G100:G107"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B65:C65"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
